--- a/design-document/SearchQuick.xlsx
+++ b/design-document/SearchQuick.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen layout" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,11 @@
     <sheet name="03_definition" sheetId="5" r:id="rId3"/>
     <sheet name="04_Check Condition Monadic" sheetId="6" r:id="rId4"/>
     <sheet name="05_Check Condition" sheetId="2" r:id="rId5"/>
+    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen layout'!$A$1:$P$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$12</definedName>
@@ -23,7 +27,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item definition'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Condition Monadic'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'05_Check Condition'!$1:$4</definedName>
+    <definedName name="YAJI_MT_登録仕訳" localSheetId="5">#REF!</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
+    <definedName name="ああ" localSheetId="5">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="100">
   <si>
     <t>NgayDangKy</t>
   </si>
@@ -314,6 +320,33 @@
   </si>
   <si>
     <t>Click Export</t>
+  </si>
+  <si>
+    <t>Ｎｏ</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>BLO</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hội viên</t>
+  </si>
+  <si>
+    <t>Student,Provide_Dai_Dan,Dai_Dan DbConnect.cs</t>
+  </si>
+  <si>
+    <t>SearchMember.cs</t>
+  </si>
+  <si>
+    <t>SearchCondition.xaml</t>
   </si>
 </sst>
 </file>
@@ -366,7 +399,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -401,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,8 +463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -834,6 +873,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -844,7 +989,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -1022,127 +1167,208 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1162,87 +1388,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4055,6 +4240,681 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2455333</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>663787</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9177866" cy="663787"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Quick Search </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:effectLst/>
+              <a:latin typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD004</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="01_Screen Layout"/>
+      <sheetName val="02_Item Definition"/>
+      <sheetName val="03_Definition"/>
+      <sheetName val="04_check Condition Monadic"/>
+      <sheetName val="05_Check Condition"/>
+      <sheetName val="06_Mapping Class, Action"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4347,7 +5207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4371,20 +5231,20 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="128" customFormat="1" ht="56.35" customHeight="1">
-      <c r="A1" s="133"/>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="133"/>
+    <row r="1" spans="1:14" s="78" customFormat="1" ht="56.35" customHeight="1">
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -5082,266 +5942,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78" t="s">
+      <c r="E1" s="85"/>
+      <c r="F1" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="83" t="s">
+      <c r="G1" s="85"/>
+      <c r="H1" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="86" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="80" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="73" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="91"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="107"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64" t="s">
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="45">
         <v>1</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="45">
         <v>1</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101" t="s">
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="45">
         <v>2</v>
       </c>
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="88"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="44">
         <v>3</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98" t="s">
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
     </row>
     <row r="17" spans="1:12" ht="40.85" customHeight="1"/>
     <row r="18" spans="1:12" ht="42.7" customHeight="1"/>
     <row r="19" spans="1:12" ht="12.85" customHeight="1">
       <c r="A19" s="43"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="43"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="43"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
     </row>
     <row r="23" spans="1:12" ht="27" customHeight="1"/>
     <row r="24" spans="1:12" ht="40.200000000000003" customHeight="1"/>
@@ -5349,121 +6209,126 @@
     <row r="27" spans="1:12" ht="15" customHeight="1"/>
     <row r="28" spans="1:12" ht="15" customHeight="1"/>
     <row r="51" spans="1:11" ht="20.7">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
     </row>
     <row r="54" spans="1:11" ht="13.35">
-      <c r="A54" s="65"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="113"/>
     </row>
     <row r="55" spans="1:11" ht="13.35">
-      <c r="A55" s="65"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
+      <c r="A55" s="112"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="97"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="97"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="97"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="97"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -5480,21 +6345,16 @@
     <mergeCell ref="A54:K54"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:L21"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5533,13 +6393,13 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="128" customFormat="1" ht="47.35" customHeight="1">
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="L1" s="130"/>
-      <c r="O1" s="130"/>
+    <row r="1" spans="1:15" s="78" customFormat="1" ht="47.35" customHeight="1">
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="L1" s="80"/>
+      <c r="O1" s="80"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="18"/>
@@ -5612,338 +6472,338 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="49" customFormat="1" ht="54" customHeight="1">
-      <c r="A4" s="111">
+      <c r="A4" s="61">
         <f t="shared" ref="A4:A10" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="113" t="s">
+      <c r="H4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="113">
+      <c r="L4" s="63">
         <v>100</v>
       </c>
-      <c r="M4" s="115" t="s">
+      <c r="M4" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="63" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="49" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="116">
+      <c r="A5" s="66">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="121" t="s">
+      <c r="K5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="121">
+      <c r="L5" s="71">
         <v>20</v>
       </c>
-      <c r="M5" s="121" t="s">
+      <c r="M5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="121" t="s">
+      <c r="N5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="121" t="s">
+      <c r="O5" s="71" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="49" customFormat="1" ht="17.350000000000001" customHeight="1">
-      <c r="A6" s="116">
+      <c r="A6" s="66">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="120" t="s">
+      <c r="G6" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="119" t="s">
+      <c r="I6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="121" t="s">
+      <c r="K6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="121">
+      <c r="L6" s="71">
         <v>50</v>
       </c>
-      <c r="M6" s="121" t="s">
+      <c r="M6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="121" t="s">
+      <c r="N6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="121" t="s">
+      <c r="O6" s="71" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="49" customFormat="1">
-      <c r="A7" s="116">
+      <c r="A7" s="66">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="F7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="120" t="s">
+      <c r="G7" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="121" t="s">
+      <c r="J7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="121" t="s">
+      <c r="K7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="71">
         <v>20</v>
       </c>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="121" t="s">
+      <c r="N7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="121" t="s">
+      <c r="O7" s="71" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="49" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="116">
+      <c r="A8" s="66">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="119" t="s">
+      <c r="F8" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="120" t="s">
+      <c r="G8" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="119" t="s">
+      <c r="I8" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="121" t="s">
+      <c r="J8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="121" t="s">
+      <c r="K8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="121">
+      <c r="L8" s="71">
         <v>100</v>
       </c>
-      <c r="M8" s="121" t="s">
+      <c r="M8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="121" t="s">
+      <c r="N8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="121" t="s">
+      <c r="O8" s="71" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="49" customFormat="1">
-      <c r="A9" s="116">
+      <c r="A9" s="66">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="119" t="s">
+      <c r="F9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="121" t="s">
+      <c r="H9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="I9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="121" t="s">
+      <c r="J9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="121">
+      <c r="L9" s="71">
         <v>20</v>
       </c>
-      <c r="M9" s="121" t="s">
+      <c r="M9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="121" t="s">
+      <c r="N9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="121" t="s">
+      <c r="O9" s="71" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="131" customFormat="1">
-      <c r="A10" s="123">
+    <row r="10" spans="1:15" s="81" customFormat="1">
+      <c r="A10" s="73">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="132" t="s">
+      <c r="D10" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="126" t="s">
+      <c r="E10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="127" t="s">
+      <c r="G10" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="125" t="s">
+      <c r="H10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="127" t="s">
+      <c r="I10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="125" t="s">
+      <c r="J10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="125" t="s">
+      <c r="K10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="125" t="s">
+      <c r="L10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="125" t="s">
+      <c r="M10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="125" t="s">
+      <c r="N10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="125" t="s">
+      <c r="O10" s="75" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6417,19 +7277,19 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="130" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6444,11 +7304,11 @@
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="104"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="131"/>
     </row>
     <row r="7" spans="1:8" ht="26.35" customHeight="1">
       <c r="A7" s="2"/>
@@ -6478,4 +7338,321 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.35"/>
+  <cols>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="11" max="24" width="8.88671875" style="149"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="11.35">
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="70" customHeight="1">
+      <c r="A3" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="145">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="148" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="149"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="149"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="149"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="149"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="149"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="149"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="149"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="149"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="149"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+    </row>
+    <row r="15" spans="1:24" s="149" customFormat="1">
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+    </row>
+    <row r="16" spans="1:24" s="149" customFormat="1">
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+    </row>
+    <row r="17" s="149" customFormat="1"/>
+    <row r="18" s="149" customFormat="1"/>
+    <row r="19" s="149" customFormat="1"/>
+    <row r="20" s="149" customFormat="1"/>
+    <row r="21" s="149" customFormat="1"/>
+    <row r="22" s="149" customFormat="1"/>
+    <row r="23" s="149" customFormat="1"/>
+    <row r="24" s="149" customFormat="1"/>
+    <row r="25" s="149" customFormat="1"/>
+    <row r="26" s="149" customFormat="1"/>
+    <row r="27" s="149" customFormat="1"/>
+    <row r="28" s="149" customFormat="1"/>
+    <row r="29" s="149" customFormat="1"/>
+    <row r="30" s="149" customFormat="1"/>
+    <row r="31" s="149" customFormat="1"/>
+    <row r="32" s="149" customFormat="1"/>
+    <row r="33" s="149" customFormat="1"/>
+    <row r="34" s="149" customFormat="1"/>
+    <row r="35" s="149" customFormat="1"/>
+    <row r="36" s="149" customFormat="1"/>
+    <row r="37" s="149" customFormat="1"/>
+    <row r="38" s="149" customFormat="1"/>
+    <row r="39" s="149" customFormat="1"/>
+    <row r="40" s="149" customFormat="1"/>
+    <row r="41" s="149" customFormat="1"/>
+    <row r="42" s="149" customFormat="1"/>
+    <row r="43" s="149" customFormat="1"/>
+    <row r="44" s="149" customFormat="1"/>
+    <row r="45" s="149" customFormat="1"/>
+    <row r="46" s="149" customFormat="1"/>
+    <row r="47" s="149" customFormat="1"/>
+    <row r="48" s="149" customFormat="1"/>
+    <row r="49" s="149" customFormat="1"/>
+    <row r="50" s="149" customFormat="1"/>
+    <row r="51" s="149" customFormat="1"/>
+    <row r="52" s="149" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design-document/SearchQuick.xlsx
+++ b/design-document/SearchQuick.xlsx
@@ -7,26 +7,34 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22272" windowHeight="12648" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="01_Screen layout" sheetId="3" r:id="rId1"/>
-    <sheet name="02_Item definition" sheetId="4" r:id="rId2"/>
-    <sheet name="03_definition" sheetId="5" r:id="rId3"/>
-    <sheet name="04_Check Condition Monadic" sheetId="6" r:id="rId4"/>
-    <sheet name="05_Check Condition" sheetId="2" r:id="rId5"/>
-    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId6"/>
+    <sheet name="Message" sheetId="8" r:id="rId1"/>
+    <sheet name="01_Screen layout" sheetId="3" r:id="rId2"/>
+    <sheet name="02_Item definition" sheetId="4" r:id="rId3"/>
+    <sheet name="03_definition" sheetId="5" r:id="rId4"/>
+    <sheet name="04_Check Condition Monadic" sheetId="6" r:id="rId5"/>
+    <sheet name="05_Check Condition" sheetId="2" r:id="rId6"/>
+    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen layout'!$A$1:$P$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_definition'!$A$1:$L$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Condition Monadic'!$A$1:$O$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'05_Check Condition'!$A$1:$I$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen layout'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item definition'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Condition Monadic'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'05_Check Condition'!$1:$4</definedName>
-    <definedName name="YAJI_MT_登録仕訳" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'01_Screen layout'!$A$1:$P$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'02_Item definition'!$A$1:$N$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'03_definition'!$A$1:$L$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'04_Check Condition Monadic'!$A$1:$O$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'05_Check Condition'!$A$1:$I$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Message!$A$1:$D$165</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'01_Screen layout'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'02_Item definition'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'04_Check Condition Monadic'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'05_Check Condition'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Message!$1:$3</definedName>
+    <definedName name="YAJI_MT_登録仕訳" localSheetId="6">#REF!</definedName>
+    <definedName name="YAJI_MT_登録仕訳" localSheetId="0">#REF!</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
-    <definedName name="ああ" localSheetId="5">#REF!</definedName>
+    <definedName name="ああ" localSheetId="6">#REF!</definedName>
+    <definedName name="ああ" localSheetId="0">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,27 +46,392 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate kieu so khong dau
+            9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate so thap phan co dau +, - 
+             0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+is required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cau thong bao cho truong co format Email</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cau thong bao cho truong co format Email</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate kieu so khong dau
+            9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate kieu so khong dau
+            9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate so thap phan co dau +, - 
+             0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate so thap phan co dau +, - 
+             0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate alpha-numeric, +, -
+               X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate alpha-numeric, +, -
+               X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize 2 byte, bao gom tieng Nhat
+           N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize 2 byte, bao gom tieng Nhat
+           N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize katakana
+             K</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize katakana
+             K</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="103">
-  <si>
-    <t>NgayDangKy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="126">
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Parameters:
-- {0}: NgaySinh
-- {1}: NgayDangKy</t>
-  </si>
-  <si>
-    <t>dialog</t>
-  </si>
-  <si>
-    <t>NgaySinh phải nhỏ hơn NgayDangKy</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
   </si>
   <si>
     <t>Explanation of processing</t>
@@ -353,13 +726,98 @@
   </si>
   <si>
     <t>btnXuatFile</t>
+  </si>
+  <si>
+    <t>{0} and {1} are not consistent</t>
+  </si>
+  <si>
+    <t>{0} or {1} invalid</t>
+  </si>
+  <si>
+    <t>Pass Point of { 1 } course is not consistent with {0} for {2} status.</t>
+  </si>
+  <si>
+    <t>{ 0 } is greater than { 1 } and less than { 2 }</t>
+  </si>
+  <si>
+    <t>{ 0 } は、全角カタカナで入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、全角で入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、半角英数字で入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、半角英数字、+ - . で入力してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ 0 } không có dữ liệu cần tìm kiếm </t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>{ 0 } は、半角数字で入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } lỗi xuất file</t>
+  </si>
+  <si>
+    <t>AKD-MS003-E</t>
+  </si>
+  <si>
+    <t>メールアドレス に使用することができない文字が使用されています。使用することができる文字（A～Z a～z @ . _ -）を使用してください。</t>
+  </si>
+  <si>
+    <t>That character cannnot used for email address. Please use character (A-Z a-z @._-)</t>
+  </si>
+  <si>
+    <t>{ 0 } が入力されていません。</t>
+  </si>
+  <si>
+    <t>AKD-MS002-E</t>
+  </si>
+  <si>
+    <t>{0} must be less than {1}</t>
+  </si>
+  <si>
+    <t>AKD-MS001-E</t>
+  </si>
+  <si>
+    <t>日本語メッセージ</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>* The message is displayed in the format of "AKD003".</t>
+  </si>
+  <si>
+    <t>Không xuất được file word</t>
+  </si>
+  <si>
+    <t>{0}: xuất file bị lỗi</t>
+  </si>
+  <si>
+    <t>Không có dữ liều cần tìm kiếm</t>
+  </si>
+  <si>
+    <t>{0}: tìm kiếm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +897,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -476,7 +960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -487,28 +971,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -975,6 +1441,19 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -995,68 +1474,65 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,171 +1548,171 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1248,197 +1724,266 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1462,6 +2007,377 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>594360</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 38"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620" y="167640"/>
+          <a:ext cx="4525617" cy="426720"/>
+          <a:chOff x="1" y="61"/>
+          <a:chExt cx="746" cy="28"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="68539"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1" y="61"/>
+            <a:ext cx="746" cy="28"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 25"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1" y="67"/>
+            <a:ext cx="119" cy="18"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 26"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="127" y="66"/>
+            <a:ext cx="84" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 27"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="213" y="67"/>
+            <a:ext cx="162" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Message definition</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 28"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="375" y="68"/>
+            <a:ext cx="125" cy="16"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 29"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="501" y="67"/>
+            <a:ext cx="242" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2195,7 +3111,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2892,7 +3808,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3021,7 +3937,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3751,7 +4667,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4356,7 +5272,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5006,6 +5922,31 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Message"/>
+      <sheetName val="01_Screen Layout"/>
+      <sheetName val="02_Item definition"/>
+      <sheetName val="03_Definition"/>
+      <sheetName val="04_Check Conditional_Monadic"/>
+      <sheetName val="05_Check Conditional"/>
+      <sheetName val="06_Mapping Class, Action"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5270,6 +6211,1326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G165"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="146" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="146" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="146" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="146" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" style="145" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="145" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="145"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="56.25" customHeight="1"/>
+    <row r="2" spans="1:5" s="158" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="159"/>
+      <c r="B2" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="157" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="157" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="157" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="157" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A4" s="155">
+        <v>1</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="149" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="149" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A5" s="148">
+        <v>2</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="149" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" hidden="1" customHeight="1">
+      <c r="A6" s="155">
+        <v>3</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="149" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="149" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="149" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="159"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="161" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A9" s="155"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="149" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="155"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A11" s="155"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A12" s="155"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A13" s="155"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A14" s="155"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A15" s="150"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A16" s="150"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A17" s="150"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A18" s="150"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="149"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A19" s="150"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="149"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A20" s="150"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="149"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A21" s="150"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="149"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A22" s="150"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="149"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A23" s="150"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="149"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A24" s="150"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="149"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A25" s="152"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A26" s="152"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A27" s="150"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="149"/>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A28" s="150"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="149"/>
+    </row>
+    <row r="29" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A29" s="150"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="149"/>
+    </row>
+    <row r="30" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A30" s="150"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="149"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A31" s="150"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="149"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A32" s="150"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="149"/>
+    </row>
+    <row r="33" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A33" s="150"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="149"/>
+    </row>
+    <row r="34" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A34" s="150"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="149"/>
+    </row>
+    <row r="35" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A35" s="150"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="149"/>
+    </row>
+    <row r="36" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A36" s="150"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="149"/>
+    </row>
+    <row r="37" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A37" s="150"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="149"/>
+    </row>
+    <row r="38" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A38" s="150"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="149"/>
+    </row>
+    <row r="39" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A39" s="150"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="149"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="150"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="149"/>
+    </row>
+    <row r="41" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A41" s="150"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="149"/>
+    </row>
+    <row r="42" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A42" s="150"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="149"/>
+    </row>
+    <row r="43" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A43" s="152"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="151"/>
+    </row>
+    <row r="44" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A44" s="150"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="149"/>
+    </row>
+    <row r="45" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A45" s="150"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="149"/>
+    </row>
+    <row r="46" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A46" s="150"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="149"/>
+    </row>
+    <row r="47" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A47" s="150"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="149"/>
+    </row>
+    <row r="48" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A48" s="150"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="149"/>
+    </row>
+    <row r="49" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A49" s="150"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="149"/>
+    </row>
+    <row r="50" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A50" s="150"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="150"/>
+      <c r="E50" s="149"/>
+    </row>
+    <row r="51" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A51" s="150"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="149"/>
+    </row>
+    <row r="52" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A52" s="150"/>
+      <c r="B52" s="150"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="149"/>
+    </row>
+    <row r="53" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A53" s="150"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="149"/>
+    </row>
+    <row r="54" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A54" s="150"/>
+      <c r="B54" s="150"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="149"/>
+    </row>
+    <row r="55" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A55" s="150"/>
+      <c r="B55" s="150"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="149"/>
+    </row>
+    <row r="56" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A56" s="150"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="149"/>
+    </row>
+    <row r="57" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A57" s="150"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="149"/>
+    </row>
+    <row r="58" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A58" s="150"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="150"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="149"/>
+    </row>
+    <row r="59" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A59" s="150"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="149"/>
+    </row>
+    <row r="60" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A60" s="150"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="149"/>
+    </row>
+    <row r="61" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A61" s="150"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="149"/>
+    </row>
+    <row r="62" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A62" s="150"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="150"/>
+      <c r="E62" s="149"/>
+    </row>
+    <row r="63" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A63" s="150"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="149"/>
+    </row>
+    <row r="64" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A64" s="150"/>
+      <c r="B64" s="150"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="150"/>
+      <c r="E64" s="149"/>
+    </row>
+    <row r="65" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A65" s="150"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="150"/>
+      <c r="E65" s="149"/>
+    </row>
+    <row r="66" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A66" s="150"/>
+      <c r="B66" s="150"/>
+      <c r="C66" s="150"/>
+      <c r="D66" s="150"/>
+      <c r="E66" s="149"/>
+    </row>
+    <row r="67" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A67" s="150"/>
+      <c r="B67" s="150"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="149"/>
+    </row>
+    <row r="68" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A68" s="150"/>
+      <c r="B68" s="150"/>
+      <c r="C68" s="150"/>
+      <c r="D68" s="150"/>
+      <c r="E68" s="149"/>
+    </row>
+    <row r="69" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A69" s="150"/>
+      <c r="B69" s="150"/>
+      <c r="C69" s="150"/>
+      <c r="D69" s="150"/>
+      <c r="E69" s="149"/>
+    </row>
+    <row r="70" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A70" s="150"/>
+      <c r="B70" s="150"/>
+      <c r="C70" s="150"/>
+      <c r="D70" s="150"/>
+      <c r="E70" s="149"/>
+    </row>
+    <row r="71" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A71" s="150"/>
+      <c r="B71" s="150"/>
+      <c r="C71" s="150"/>
+      <c r="D71" s="150"/>
+      <c r="E71" s="149"/>
+    </row>
+    <row r="72" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A72" s="150"/>
+      <c r="B72" s="150"/>
+      <c r="C72" s="150"/>
+      <c r="D72" s="150"/>
+      <c r="E72" s="149"/>
+    </row>
+    <row r="73" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A73" s="150"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="150"/>
+      <c r="D73" s="150"/>
+      <c r="E73" s="149"/>
+    </row>
+    <row r="74" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A74" s="150"/>
+      <c r="B74" s="150"/>
+      <c r="C74" s="150"/>
+      <c r="D74" s="150"/>
+      <c r="E74" s="149"/>
+    </row>
+    <row r="75" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A75" s="150"/>
+      <c r="B75" s="150"/>
+      <c r="C75" s="150"/>
+      <c r="D75" s="150"/>
+      <c r="E75" s="149"/>
+    </row>
+    <row r="76" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A76" s="150"/>
+      <c r="B76" s="150"/>
+      <c r="C76" s="150"/>
+      <c r="D76" s="150"/>
+      <c r="E76" s="149"/>
+    </row>
+    <row r="77" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A77" s="150"/>
+      <c r="B77" s="150"/>
+      <c r="C77" s="150"/>
+      <c r="D77" s="150"/>
+      <c r="E77" s="149"/>
+    </row>
+    <row r="78" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A78" s="150"/>
+      <c r="B78" s="150"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="150"/>
+      <c r="E78" s="149"/>
+    </row>
+    <row r="79" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A79" s="150"/>
+      <c r="B79" s="150"/>
+      <c r="C79" s="150"/>
+      <c r="D79" s="150"/>
+      <c r="E79" s="149"/>
+    </row>
+    <row r="80" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A80" s="150"/>
+      <c r="B80" s="150"/>
+      <c r="C80" s="150"/>
+      <c r="D80" s="150"/>
+      <c r="E80" s="149"/>
+    </row>
+    <row r="81" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A81" s="150"/>
+      <c r="B81" s="150"/>
+      <c r="C81" s="150"/>
+      <c r="D81" s="150"/>
+      <c r="E81" s="149"/>
+    </row>
+    <row r="82" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A82" s="150"/>
+      <c r="B82" s="150"/>
+      <c r="C82" s="150"/>
+      <c r="D82" s="150"/>
+      <c r="E82" s="149"/>
+    </row>
+    <row r="83" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A83" s="150"/>
+      <c r="B83" s="150"/>
+      <c r="C83" s="150"/>
+      <c r="D83" s="150"/>
+      <c r="E83" s="149"/>
+    </row>
+    <row r="84" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A84" s="150"/>
+      <c r="B84" s="150"/>
+      <c r="C84" s="150"/>
+      <c r="D84" s="150"/>
+      <c r="E84" s="149"/>
+    </row>
+    <row r="85" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A85" s="150"/>
+      <c r="B85" s="150"/>
+      <c r="C85" s="150"/>
+      <c r="D85" s="150"/>
+      <c r="E85" s="149"/>
+    </row>
+    <row r="86" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A86" s="150"/>
+      <c r="B86" s="150"/>
+      <c r="C86" s="150"/>
+      <c r="D86" s="150"/>
+      <c r="E86" s="149"/>
+    </row>
+    <row r="87" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A87" s="150"/>
+      <c r="B87" s="150"/>
+      <c r="C87" s="150"/>
+      <c r="D87" s="150"/>
+      <c r="E87" s="149"/>
+    </row>
+    <row r="88" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A88" s="150"/>
+      <c r="B88" s="150"/>
+      <c r="C88" s="150"/>
+      <c r="D88" s="150"/>
+      <c r="E88" s="149"/>
+    </row>
+    <row r="89" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A89" s="150"/>
+      <c r="B89" s="150"/>
+      <c r="C89" s="150"/>
+      <c r="D89" s="150"/>
+      <c r="E89" s="149"/>
+    </row>
+    <row r="90" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A90" s="150"/>
+      <c r="B90" s="150"/>
+      <c r="C90" s="150"/>
+      <c r="D90" s="150"/>
+      <c r="E90" s="149"/>
+    </row>
+    <row r="91" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A91" s="150"/>
+      <c r="B91" s="150"/>
+      <c r="C91" s="150"/>
+      <c r="D91" s="150"/>
+      <c r="E91" s="149"/>
+    </row>
+    <row r="92" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A92" s="150"/>
+      <c r="B92" s="150"/>
+      <c r="C92" s="150"/>
+      <c r="D92" s="150"/>
+      <c r="E92" s="149"/>
+    </row>
+    <row r="93" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A93" s="150"/>
+      <c r="B93" s="150"/>
+      <c r="C93" s="150"/>
+      <c r="D93" s="150"/>
+      <c r="E93" s="149"/>
+    </row>
+    <row r="94" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A94" s="150"/>
+      <c r="B94" s="150"/>
+      <c r="C94" s="150"/>
+      <c r="D94" s="150"/>
+      <c r="E94" s="149"/>
+    </row>
+    <row r="95" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A95" s="150"/>
+      <c r="B95" s="150"/>
+      <c r="C95" s="150"/>
+      <c r="D95" s="150"/>
+      <c r="E95" s="149"/>
+    </row>
+    <row r="96" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A96" s="150"/>
+      <c r="B96" s="150"/>
+      <c r="C96" s="150"/>
+      <c r="D96" s="150"/>
+      <c r="E96" s="149"/>
+    </row>
+    <row r="97" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A97" s="150"/>
+      <c r="B97" s="150"/>
+      <c r="C97" s="150"/>
+      <c r="D97" s="150"/>
+      <c r="E97" s="149"/>
+    </row>
+    <row r="98" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A98" s="150"/>
+      <c r="B98" s="150"/>
+      <c r="C98" s="150"/>
+      <c r="D98" s="150"/>
+      <c r="E98" s="149"/>
+    </row>
+    <row r="99" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A99" s="150"/>
+      <c r="B99" s="150"/>
+      <c r="C99" s="150"/>
+      <c r="D99" s="150"/>
+      <c r="E99" s="149"/>
+    </row>
+    <row r="100" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A100" s="150"/>
+      <c r="B100" s="150"/>
+      <c r="C100" s="150"/>
+      <c r="D100" s="150"/>
+      <c r="E100" s="149"/>
+    </row>
+    <row r="101" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A101" s="150"/>
+      <c r="B101" s="150"/>
+      <c r="C101" s="150"/>
+      <c r="D101" s="150"/>
+      <c r="E101" s="149"/>
+    </row>
+    <row r="102" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A102" s="150"/>
+      <c r="B102" s="150"/>
+      <c r="C102" s="150"/>
+      <c r="D102" s="150"/>
+      <c r="E102" s="149"/>
+    </row>
+    <row r="103" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A103" s="150"/>
+      <c r="B103" s="150"/>
+      <c r="C103" s="150"/>
+      <c r="D103" s="150"/>
+      <c r="E103" s="149"/>
+    </row>
+    <row r="104" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A104" s="150"/>
+      <c r="B104" s="150"/>
+      <c r="C104" s="150"/>
+      <c r="D104" s="150"/>
+      <c r="E104" s="149"/>
+    </row>
+    <row r="105" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A105" s="150"/>
+      <c r="B105" s="150"/>
+      <c r="C105" s="150"/>
+      <c r="D105" s="150"/>
+      <c r="E105" s="149"/>
+    </row>
+    <row r="106" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A106" s="150"/>
+      <c r="B106" s="150"/>
+      <c r="C106" s="150"/>
+      <c r="D106" s="150"/>
+      <c r="E106" s="149"/>
+    </row>
+    <row r="107" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A107" s="150"/>
+      <c r="B107" s="150"/>
+      <c r="C107" s="150"/>
+      <c r="D107" s="150"/>
+      <c r="E107" s="149"/>
+    </row>
+    <row r="108" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A108" s="150"/>
+      <c r="B108" s="150"/>
+      <c r="C108" s="150"/>
+      <c r="D108" s="150"/>
+      <c r="E108" s="149"/>
+    </row>
+    <row r="109" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A109" s="150"/>
+      <c r="B109" s="150"/>
+      <c r="C109" s="150"/>
+      <c r="D109" s="150"/>
+      <c r="E109" s="149"/>
+    </row>
+    <row r="110" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A110" s="150"/>
+      <c r="B110" s="150"/>
+      <c r="C110" s="150"/>
+      <c r="D110" s="150"/>
+      <c r="E110" s="149"/>
+    </row>
+    <row r="111" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A111" s="150"/>
+      <c r="B111" s="150"/>
+      <c r="C111" s="150"/>
+      <c r="D111" s="150"/>
+      <c r="E111" s="149"/>
+    </row>
+    <row r="112" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A112" s="150"/>
+      <c r="B112" s="150"/>
+      <c r="C112" s="150"/>
+      <c r="D112" s="150"/>
+      <c r="E112" s="149"/>
+    </row>
+    <row r="113" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A113" s="150"/>
+      <c r="B113" s="150"/>
+      <c r="C113" s="150"/>
+      <c r="D113" s="150"/>
+      <c r="E113" s="149"/>
+    </row>
+    <row r="114" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A114" s="150"/>
+      <c r="B114" s="150"/>
+      <c r="C114" s="150"/>
+      <c r="D114" s="150"/>
+      <c r="E114" s="149"/>
+    </row>
+    <row r="115" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A115" s="150"/>
+      <c r="B115" s="150"/>
+      <c r="C115" s="150"/>
+      <c r="D115" s="150"/>
+      <c r="E115" s="149"/>
+    </row>
+    <row r="116" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A116" s="150"/>
+      <c r="B116" s="150"/>
+      <c r="C116" s="150"/>
+      <c r="D116" s="150"/>
+      <c r="E116" s="149"/>
+    </row>
+    <row r="117" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A117" s="150"/>
+      <c r="B117" s="150"/>
+      <c r="C117" s="150"/>
+      <c r="D117" s="150"/>
+      <c r="E117" s="149"/>
+    </row>
+    <row r="118" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A118" s="150"/>
+      <c r="B118" s="150"/>
+      <c r="C118" s="150"/>
+      <c r="D118" s="150"/>
+      <c r="E118" s="149"/>
+    </row>
+    <row r="119" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A119" s="150"/>
+      <c r="B119" s="150"/>
+      <c r="C119" s="150"/>
+      <c r="D119" s="150"/>
+      <c r="E119" s="149"/>
+    </row>
+    <row r="120" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A120" s="150"/>
+      <c r="B120" s="150"/>
+      <c r="C120" s="150"/>
+      <c r="D120" s="150"/>
+      <c r="E120" s="149"/>
+    </row>
+    <row r="121" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A121" s="150"/>
+      <c r="B121" s="150"/>
+      <c r="C121" s="150"/>
+      <c r="D121" s="150"/>
+      <c r="E121" s="149"/>
+    </row>
+    <row r="122" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A122" s="150"/>
+      <c r="B122" s="150"/>
+      <c r="C122" s="150"/>
+      <c r="D122" s="150"/>
+      <c r="E122" s="149"/>
+    </row>
+    <row r="123" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A123" s="150"/>
+      <c r="B123" s="150"/>
+      <c r="C123" s="150"/>
+      <c r="D123" s="150"/>
+      <c r="E123" s="149"/>
+    </row>
+    <row r="124" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A124" s="150"/>
+      <c r="B124" s="150"/>
+      <c r="C124" s="150"/>
+      <c r="D124" s="150"/>
+      <c r="E124" s="149"/>
+    </row>
+    <row r="125" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A125" s="150"/>
+      <c r="B125" s="150"/>
+      <c r="C125" s="150"/>
+      <c r="D125" s="150"/>
+      <c r="E125" s="149"/>
+    </row>
+    <row r="126" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A126" s="150"/>
+      <c r="B126" s="150"/>
+      <c r="C126" s="150"/>
+      <c r="D126" s="150"/>
+      <c r="E126" s="149"/>
+    </row>
+    <row r="127" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A127" s="150"/>
+      <c r="B127" s="150"/>
+      <c r="C127" s="150"/>
+      <c r="D127" s="150"/>
+      <c r="E127" s="149"/>
+    </row>
+    <row r="128" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A128" s="150"/>
+      <c r="B128" s="150"/>
+      <c r="C128" s="150"/>
+      <c r="D128" s="150"/>
+      <c r="E128" s="149"/>
+    </row>
+    <row r="129" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A129" s="150"/>
+      <c r="B129" s="150"/>
+      <c r="C129" s="150"/>
+      <c r="D129" s="150"/>
+      <c r="E129" s="149"/>
+    </row>
+    <row r="130" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A130" s="150"/>
+      <c r="B130" s="150"/>
+      <c r="C130" s="150"/>
+      <c r="D130" s="150"/>
+      <c r="E130" s="149"/>
+    </row>
+    <row r="131" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A131" s="150"/>
+      <c r="B131" s="150"/>
+      <c r="C131" s="150"/>
+      <c r="D131" s="150"/>
+      <c r="E131" s="149"/>
+    </row>
+    <row r="132" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A132" s="150"/>
+      <c r="B132" s="150"/>
+      <c r="C132" s="150"/>
+      <c r="D132" s="150"/>
+      <c r="E132" s="149"/>
+    </row>
+    <row r="133" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A133" s="150"/>
+      <c r="B133" s="150"/>
+      <c r="C133" s="150"/>
+      <c r="D133" s="150"/>
+      <c r="E133" s="149"/>
+    </row>
+    <row r="134" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A134" s="150"/>
+      <c r="B134" s="150"/>
+      <c r="C134" s="150"/>
+      <c r="D134" s="150"/>
+      <c r="E134" s="149"/>
+    </row>
+    <row r="135" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A135" s="150"/>
+      <c r="B135" s="150"/>
+      <c r="C135" s="150"/>
+      <c r="D135" s="150"/>
+      <c r="E135" s="149"/>
+    </row>
+    <row r="136" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A136" s="150"/>
+      <c r="B136" s="150"/>
+      <c r="C136" s="150"/>
+      <c r="D136" s="150"/>
+      <c r="E136" s="149"/>
+    </row>
+    <row r="137" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A137" s="150"/>
+      <c r="B137" s="150"/>
+      <c r="C137" s="150"/>
+      <c r="D137" s="150"/>
+      <c r="E137" s="149"/>
+    </row>
+    <row r="138" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A138" s="150"/>
+      <c r="B138" s="150"/>
+      <c r="C138" s="150"/>
+      <c r="D138" s="150"/>
+      <c r="E138" s="149"/>
+    </row>
+    <row r="139" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A139" s="150"/>
+      <c r="B139" s="150"/>
+      <c r="C139" s="150"/>
+      <c r="D139" s="150"/>
+      <c r="E139" s="149"/>
+    </row>
+    <row r="140" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A140" s="150"/>
+      <c r="B140" s="150"/>
+      <c r="C140" s="150"/>
+      <c r="D140" s="150"/>
+      <c r="E140" s="149"/>
+    </row>
+    <row r="141" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A141" s="150">
+        <f>ROW()-3</f>
+        <v>138</v>
+      </c>
+      <c r="B141" s="150"/>
+      <c r="C141" s="150"/>
+      <c r="D141" s="150"/>
+      <c r="E141" s="149"/>
+    </row>
+    <row r="142" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A142" s="150">
+        <f>ROW()-3</f>
+        <v>139</v>
+      </c>
+      <c r="B142" s="150"/>
+      <c r="C142" s="150"/>
+      <c r="D142" s="150"/>
+      <c r="E142" s="149"/>
+    </row>
+    <row r="143" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A143" s="150">
+        <f>ROW()-3</f>
+        <v>140</v>
+      </c>
+      <c r="B143" s="150"/>
+      <c r="C143" s="150"/>
+      <c r="D143" s="150"/>
+      <c r="E143" s="149"/>
+    </row>
+    <row r="144" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A144" s="150">
+        <f>ROW()-3</f>
+        <v>141</v>
+      </c>
+      <c r="B144" s="150"/>
+      <c r="C144" s="150"/>
+      <c r="D144" s="150"/>
+      <c r="E144" s="149"/>
+    </row>
+    <row r="145" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A145" s="150">
+        <f>ROW()-3</f>
+        <v>142</v>
+      </c>
+      <c r="B145" s="150"/>
+      <c r="C145" s="150"/>
+      <c r="D145" s="150"/>
+      <c r="E145" s="149"/>
+    </row>
+    <row r="146" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A146" s="150">
+        <f>ROW()-3</f>
+        <v>143</v>
+      </c>
+      <c r="B146" s="150"/>
+      <c r="C146" s="150"/>
+      <c r="D146" s="150"/>
+      <c r="E146" s="149"/>
+    </row>
+    <row r="147" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A147" s="150">
+        <f>ROW()-3</f>
+        <v>144</v>
+      </c>
+      <c r="B147" s="150"/>
+      <c r="C147" s="150"/>
+      <c r="D147" s="150"/>
+      <c r="E147" s="149"/>
+    </row>
+    <row r="148" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A148" s="150">
+        <f>ROW()-3</f>
+        <v>145</v>
+      </c>
+      <c r="B148" s="150"/>
+      <c r="C148" s="150"/>
+      <c r="D148" s="150"/>
+      <c r="E148" s="149"/>
+    </row>
+    <row r="149" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A149" s="150">
+        <f>ROW()-3</f>
+        <v>146</v>
+      </c>
+      <c r="B149" s="150"/>
+      <c r="C149" s="150"/>
+      <c r="D149" s="150"/>
+      <c r="E149" s="149"/>
+    </row>
+    <row r="150" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A150" s="150">
+        <f>ROW()-3</f>
+        <v>147</v>
+      </c>
+      <c r="B150" s="150"/>
+      <c r="C150" s="150"/>
+      <c r="D150" s="150"/>
+      <c r="E150" s="149"/>
+    </row>
+    <row r="151" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A151" s="150">
+        <f>ROW()-3</f>
+        <v>148</v>
+      </c>
+      <c r="B151" s="150"/>
+      <c r="C151" s="150"/>
+      <c r="D151" s="150"/>
+      <c r="E151" s="149"/>
+    </row>
+    <row r="152" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A152" s="150">
+        <f>ROW()-3</f>
+        <v>149</v>
+      </c>
+      <c r="B152" s="150"/>
+      <c r="C152" s="150"/>
+      <c r="D152" s="150"/>
+      <c r="E152" s="149"/>
+    </row>
+    <row r="153" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A153" s="150">
+        <f>ROW()-3</f>
+        <v>150</v>
+      </c>
+      <c r="B153" s="150"/>
+      <c r="C153" s="150"/>
+      <c r="D153" s="150"/>
+      <c r="E153" s="149"/>
+    </row>
+    <row r="154" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A154" s="150">
+        <f>ROW()-3</f>
+        <v>151</v>
+      </c>
+      <c r="B154" s="150"/>
+      <c r="C154" s="150"/>
+      <c r="D154" s="150"/>
+      <c r="E154" s="149"/>
+    </row>
+    <row r="155" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A155" s="150">
+        <f>ROW()-3</f>
+        <v>152</v>
+      </c>
+      <c r="B155" s="150"/>
+      <c r="C155" s="150"/>
+      <c r="D155" s="150"/>
+      <c r="E155" s="149"/>
+    </row>
+    <row r="156" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A156" s="150">
+        <f>ROW()-3</f>
+        <v>153</v>
+      </c>
+      <c r="B156" s="150"/>
+      <c r="C156" s="150"/>
+      <c r="D156" s="150"/>
+      <c r="E156" s="149"/>
+    </row>
+    <row r="157" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A157" s="150">
+        <f>ROW()-3</f>
+        <v>154</v>
+      </c>
+      <c r="B157" s="150"/>
+      <c r="C157" s="150"/>
+      <c r="D157" s="150"/>
+      <c r="E157" s="149"/>
+    </row>
+    <row r="158" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A158" s="150">
+        <f>ROW()-3</f>
+        <v>155</v>
+      </c>
+      <c r="B158" s="150"/>
+      <c r="C158" s="150"/>
+      <c r="D158" s="150"/>
+      <c r="E158" s="149"/>
+    </row>
+    <row r="159" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A159" s="150">
+        <f>ROW()-3</f>
+        <v>156</v>
+      </c>
+      <c r="B159" s="150"/>
+      <c r="C159" s="150"/>
+      <c r="D159" s="150"/>
+      <c r="E159" s="149"/>
+    </row>
+    <row r="160" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A160" s="150">
+        <f>ROW()-3</f>
+        <v>157</v>
+      </c>
+      <c r="B160" s="150"/>
+      <c r="C160" s="150"/>
+      <c r="D160" s="150"/>
+      <c r="E160" s="149"/>
+    </row>
+    <row r="161" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A161" s="150">
+        <f>ROW()-3</f>
+        <v>158</v>
+      </c>
+      <c r="B161" s="150"/>
+      <c r="C161" s="150"/>
+      <c r="D161" s="150"/>
+      <c r="E161" s="149"/>
+    </row>
+    <row r="162" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A162" s="150">
+        <f>ROW()-3</f>
+        <v>159</v>
+      </c>
+      <c r="B162" s="150"/>
+      <c r="C162" s="150"/>
+      <c r="D162" s="150"/>
+      <c r="E162" s="149"/>
+    </row>
+    <row r="163" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A163" s="150">
+        <f>ROW()-3</f>
+        <v>160</v>
+      </c>
+      <c r="B163" s="150"/>
+      <c r="C163" s="150"/>
+      <c r="D163" s="150"/>
+      <c r="E163" s="149"/>
+    </row>
+    <row r="164" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A164" s="150">
+        <f>ROW()-3</f>
+        <v>161</v>
+      </c>
+      <c r="B164" s="150"/>
+      <c r="C164" s="150"/>
+      <c r="D164" s="150"/>
+      <c r="E164" s="149"/>
+    </row>
+    <row r="165" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A165" s="148">
+        <f>ROW()-3</f>
+        <v>162</v>
+      </c>
+      <c r="B165" s="148"/>
+      <c r="C165" s="148"/>
+      <c r="D165" s="148"/>
+      <c r="E165" s="147"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.21" top="0.38" bottom="0.34" header="0.38" footer="0.2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;F</oddHeader>
+    <oddFooter>&amp;L&amp;9Copyright(c) 2008 HJ All rights reserved.&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5296,7 +7557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
@@ -5306,703 +7567,703 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="21" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="21" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="22" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="21" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="20" customWidth="1"/>
     <col min="14" max="14" width="35.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="1.109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="75" customFormat="1" ht="56.4" customHeight="1">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="80"/>
+    <row r="1" spans="1:14" s="74" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="E2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="F2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33">
+      <c r="B3" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32">
         <v>100</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>15</v>
+      <c r="G3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="33" t="s">
+      <c r="B4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>15</v>
+      <c r="I4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="33" t="s">
+      <c r="B5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>15</v>
+      <c r="I5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="B6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>15</v>
+      <c r="I6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="36" t="s">
+      <c r="B7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>15</v>
+      <c r="I7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="35" t="s">
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>15</v>
+      <c r="I8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>15</v>
+      <c r="I9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>15</v>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F15" s="24"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F18" s="24"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="M33" s="24"/>
+      <c r="B11" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="1:13" ht="13.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:13" ht="13.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13" ht="13.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:13" ht="13.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13" ht="13.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="1:13" ht="13.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.43307086614173229" bottom="0.35433070866141736" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -6014,7 +8275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
@@ -6024,273 +8285,273 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="42"/>
-    <col min="2" max="2" width="10.77734375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="42" customWidth="1"/>
-    <col min="6" max="10" width="8.88671875" style="42"/>
-    <col min="11" max="11" width="8.5546875" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="1" width="8.88671875" style="41"/>
+    <col min="2" max="2" width="10.77734375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="41" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="41"/>
+    <col min="11" max="11" width="8.5546875" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="130" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132"/>
+      <c r="A1" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="133" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="127" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
+      <c r="A2" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="109"/>
+      <c r="H2" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="120"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
+      <c r="A3" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
+      <c r="A4" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
+      <c r="A6" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="A8" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
     </row>
     <row r="9" spans="1:12" ht="40.799999999999997" customHeight="1">
-      <c r="A9" s="44">
+      <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="143"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
+      <c r="A13" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1">
-      <c r="A14" s="44">
+      <c r="A14" s="43">
         <v>1</v>
       </c>
-      <c r="B14" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
+      <c r="B14" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
     </row>
     <row r="15" spans="1:12" ht="40.200000000000003" customHeight="1">
-      <c r="A15" s="44">
+      <c r="A15" s="43">
         <v>2</v>
       </c>
-      <c r="B15" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="146" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="103"/>
+      <c r="B15" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="108"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1">
-      <c r="A16" s="82">
+      <c r="A16" s="81">
         <v>3</v>
       </c>
-      <c r="B16" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
+      <c r="B16" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
     </row>
     <row r="17" spans="1:12" ht="40.799999999999997" customHeight="1"/>
     <row r="18" spans="1:12" ht="42.75" customHeight="1"/>
     <row r="19" spans="1:12" ht="12.9" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="43"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="43"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
     </row>
     <row r="23" spans="1:12" ht="27" customHeight="1"/>
     <row r="24" spans="1:12" ht="40.200000000000003" customHeight="1"/>
@@ -6298,121 +8559,126 @@
     <row r="27" spans="1:12" ht="15" customHeight="1"/>
     <row r="28" spans="1:12" ht="15" customHeight="1"/>
     <row r="51" spans="1:11" ht="21">
-      <c r="A51" s="122"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
+      <c r="A51" s="130"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="98"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="98"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-      <c r="K55" s="99"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="98"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
+      <c r="A56" s="131"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="131"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="100"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="114"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="100"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="100"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="114"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -6429,21 +8695,16 @@
     <mergeCell ref="A54:K54"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:L21"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6456,7 +8717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
@@ -6470,9 +8731,9 @@
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="6.109375" style="47" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="6.109375" style="46" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="47" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="46" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
@@ -6483,790 +8744,790 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="75" customFormat="1" ht="47.4" customHeight="1">
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="L1" s="77"/>
-      <c r="O1" s="77"/>
+    <row r="1" spans="1:15" s="74" customFormat="1" ht="47.4" customHeight="1">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="L1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="55"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="100.8">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="51" t="s">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="E3" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="F3" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="G3" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="48" customFormat="1" ht="54" customHeight="1">
-      <c r="A4" s="60">
+      <c r="H3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="47" customFormat="1" ht="54" customHeight="1">
+      <c r="A4" s="59">
         <f t="shared" ref="A4:A10" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="148" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="61">
+      <c r="B4" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="60">
         <v>100</v>
       </c>
-      <c r="M4" s="149" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="48" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="63">
+      <c r="M4" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="47" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A5" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="48" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A6" s="63">
+      <c r="B5" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="47" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A6" s="62">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="150" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="48" customFormat="1">
-      <c r="A7" s="63">
+      <c r="B6" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="47" customFormat="1">
+      <c r="A7" s="62">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="150" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="48" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="63">
+      <c r="B7" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="62">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="48" customFormat="1">
-      <c r="A9" s="63">
+      <c r="B8" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="47" customFormat="1">
+      <c r="A9" s="62">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="78" customFormat="1">
-      <c r="A10" s="70">
+      <c r="B9" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="77" customFormat="1">
+      <c r="A10" s="69">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="151" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" s="48" customFormat="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="B10" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="47" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:15" s="47" customFormat="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:15" s="47" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:15" s="47" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:15" s="47" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
     </row>
     <row r="32" spans="1:15" ht="13.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
@@ -7281,15 +9542,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -7306,123 +9567,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1">
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A5" s="6">
-        <f>ROW()-4</f>
+      <c r="A5" s="166">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="134" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="140" t="s">
+      <c r="B5" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="167" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="169" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="H5" s="136" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="4">
-        <f>ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="170" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="172" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="137"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.4" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
+    </row>
+    <row r="7" spans="1:8" ht="26.4" customHeight="1"/>
     <row r="8" spans="1:8" ht="26.4" customHeight="1"/>
     <row r="9" spans="1:8" ht="26.4" customHeight="1"/>
     <row r="10" spans="1:8" ht="31.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-  </mergeCells>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -7432,11 +9685,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7446,303 +9699,303 @@
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="32.21875" customWidth="1"/>
-    <col min="11" max="24" width="8.88671875" style="96"/>
+    <col min="11" max="24" width="8.88671875" style="95"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="56.4" customHeight="1" thickBot="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="10.8">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="70.05" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="91">
+        <v>1</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="C4" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D4" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="E4" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="92">
-        <v>1</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="96"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="96"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="96"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="96"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-    </row>
-    <row r="15" spans="1:24" s="96" customFormat="1">
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-    </row>
-    <row r="16" spans="1:24" s="96" customFormat="1">
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-    </row>
-    <row r="17" s="96" customFormat="1"/>
-    <row r="18" s="96" customFormat="1"/>
-    <row r="19" s="96" customFormat="1"/>
-    <row r="20" s="96" customFormat="1"/>
-    <row r="21" s="96" customFormat="1"/>
-    <row r="22" s="96" customFormat="1"/>
-    <row r="23" s="96" customFormat="1"/>
-    <row r="24" s="96" customFormat="1"/>
-    <row r="25" s="96" customFormat="1"/>
-    <row r="26" s="96" customFormat="1"/>
-    <row r="27" s="96" customFormat="1"/>
-    <row r="28" s="96" customFormat="1"/>
-    <row r="29" s="96" customFormat="1"/>
-    <row r="30" s="96" customFormat="1"/>
-    <row r="31" s="96" customFormat="1"/>
-    <row r="32" s="96" customFormat="1"/>
-    <row r="33" s="96" customFormat="1"/>
-    <row r="34" s="96" customFormat="1"/>
-    <row r="35" s="96" customFormat="1"/>
-    <row r="36" s="96" customFormat="1"/>
-    <row r="37" s="96" customFormat="1"/>
-    <row r="38" s="96" customFormat="1"/>
-    <row r="39" s="96" customFormat="1"/>
-    <row r="40" s="96" customFormat="1"/>
-    <row r="41" s="96" customFormat="1"/>
-    <row r="42" s="96" customFormat="1"/>
-    <row r="43" s="96" customFormat="1"/>
-    <row r="44" s="96" customFormat="1"/>
-    <row r="45" s="96" customFormat="1"/>
-    <row r="46" s="96" customFormat="1"/>
-    <row r="47" s="96" customFormat="1"/>
-    <row r="48" s="96" customFormat="1"/>
-    <row r="49" s="96" customFormat="1"/>
-    <row r="50" s="96" customFormat="1"/>
-    <row r="51" s="96" customFormat="1"/>
-    <row r="52" s="96" customFormat="1"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+    </row>
+    <row r="15" spans="1:24" s="95" customFormat="1">
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+    </row>
+    <row r="16" spans="1:24" s="95" customFormat="1">
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+    </row>
+    <row r="17" s="95" customFormat="1"/>
+    <row r="18" s="95" customFormat="1"/>
+    <row r="19" s="95" customFormat="1"/>
+    <row r="20" s="95" customFormat="1"/>
+    <row r="21" s="95" customFormat="1"/>
+    <row r="22" s="95" customFormat="1"/>
+    <row r="23" s="95" customFormat="1"/>
+    <row r="24" s="95" customFormat="1"/>
+    <row r="25" s="95" customFormat="1"/>
+    <row r="26" s="95" customFormat="1"/>
+    <row r="27" s="95" customFormat="1"/>
+    <row r="28" s="95" customFormat="1"/>
+    <row r="29" s="95" customFormat="1"/>
+    <row r="30" s="95" customFormat="1"/>
+    <row r="31" s="95" customFormat="1"/>
+    <row r="32" s="95" customFormat="1"/>
+    <row r="33" s="95" customFormat="1"/>
+    <row r="34" s="95" customFormat="1"/>
+    <row r="35" s="95" customFormat="1"/>
+    <row r="36" s="95" customFormat="1"/>
+    <row r="37" s="95" customFormat="1"/>
+    <row r="38" s="95" customFormat="1"/>
+    <row r="39" s="95" customFormat="1"/>
+    <row r="40" s="95" customFormat="1"/>
+    <row r="41" s="95" customFormat="1"/>
+    <row r="42" s="95" customFormat="1"/>
+    <row r="43" s="95" customFormat="1"/>
+    <row r="44" s="95" customFormat="1"/>
+    <row r="45" s="95" customFormat="1"/>
+    <row r="46" s="95" customFormat="1"/>
+    <row r="47" s="95" customFormat="1"/>
+    <row r="48" s="95" customFormat="1"/>
+    <row r="49" s="95" customFormat="1"/>
+    <row r="50" s="95" customFormat="1"/>
+    <row r="51" s="95" customFormat="1"/>
+    <row r="52" s="95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/design-document/SearchQuick.xlsx
+++ b/design-document/SearchQuick.xlsx
@@ -7,29 +7,28 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="01_Screen layout" sheetId="3" r:id="rId1"/>
-    <sheet name="02_Item definition" sheetId="4" r:id="rId2"/>
-    <sheet name="03_definition" sheetId="5" r:id="rId3"/>
-    <sheet name="04_Check Condition Monadic" sheetId="6" r:id="rId4"/>
-    <sheet name="05_Check Condition" sheetId="2" r:id="rId5"/>
-    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId6"/>
+    <sheet name="Message" sheetId="8" r:id="rId1"/>
+    <sheet name="01_Screen layout" sheetId="3" r:id="rId2"/>
+    <sheet name="02_Item definition" sheetId="4" r:id="rId3"/>
+    <sheet name="03_definition" sheetId="5" r:id="rId4"/>
+    <sheet name="04_Check Condition Monadic" sheetId="6" r:id="rId5"/>
+    <sheet name="05_Check Condition" sheetId="2" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen layout'!$A$1:$P$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_definition'!$A$1:$L$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Condition Monadic'!$A$1:$O$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'05_Check Condition'!$A$1:$I$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen layout'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item definition'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Condition Monadic'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'05_Check Condition'!$1:$4</definedName>
-    <definedName name="YAJI_MT_登録仕訳" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'01_Screen layout'!$A$1:$P$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'02_Item definition'!$A$1:$N$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'03_definition'!$A$1:$M$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'04_Check Condition Monadic'!$A$1:$O$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'05_Check Condition'!$A$1:$I$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Message!$A$1:$D$165</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'01_Screen layout'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'02_Item definition'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'04_Check Condition Monadic'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'05_Check Condition'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Message!$1:$3</definedName>
+    <definedName name="YAJI_MT_登録仕訳" localSheetId="0">#REF!</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
-    <definedName name="ああ" localSheetId="5">#REF!</definedName>
+    <definedName name="ああ" localSheetId="0">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -41,27 +40,392 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate kieu so khong dau
+            9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate so thap phan co dau +, - 
+             0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+is required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cau thong bao cho truong co format Email</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cau thong bao cho truong co format Email</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate kieu so khong dau
+            9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate kieu so khong dau
+            9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate so thap phan co dau +, - 
+             0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate so thap phan co dau +, - 
+             0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate alpha-numeric, +, -
+               X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate alpha-numeric, +, -
+               X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize 2 byte, bao gom tieng Nhat
+           N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize 2 byte, bao gom tieng Nhat
+           N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize katakana
+             K</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize katakana
+             K</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="100">
-  <si>
-    <t>NgayDangKy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="135">
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Parameters:
-- {0}: NgaySinh
-- {1}: NgayDangKy</t>
-  </si>
-  <si>
-    <t>dialog</t>
-  </si>
-  <si>
-    <t>NgaySinh phải nhỏ hơn NgayDangKy</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
   </si>
   <si>
     <t>Explanation of processing</t>
@@ -101,18 +465,6 @@
     <t>button</t>
   </si>
   <si>
-    <t>btnExport</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>btnSearch</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -168,9 +520,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>txtSearch</t>
   </si>
   <si>
     <t>Description</t>
@@ -216,18 +565,6 @@
     <t>- Khi admin click vào SKU từ danh sách hội viên, hệ thống sẽ hiển thị chi tiết của hội viên này.</t>
   </si>
   <si>
-    <t>Click on SKU</t>
-  </si>
-  <si>
-    <t>- Khi admin click vào buttton Export, hệ thống xuất file Word bao gồm danh sách hội viên được tìm kiếm và thông tin số mã vạch, đăng ký,  họ tên, quốc tịch, địa chỉ số điện thoại, hình, ngày đăng ký, ngày sinh, nơi sinh, lớp đăng ký và các đai đẳn đạt được</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Khi admin nhập vào những thông tin mình cần tìm kiếm vào textbox Search  trong form tìm kiếm nhanh, sau đó admin click vào button Search hệ thống sẽ hiển thị thông tin tìm kiếm ở bên dưới </t>
-  </si>
-  <si>
-    <t>Click on Search</t>
-  </si>
-  <si>
     <t>Process details</t>
   </si>
   <si>
@@ -238,12 +575,6 @@
   </si>
   <si>
     <t>２． Event processing</t>
-  </si>
-  <si>
-    <t>Admin đã đăng nhập vào hệ thống</t>
-  </si>
-  <si>
-    <t>Admin đăng nhập vào hệ thống</t>
   </si>
   <si>
     <t>１． Processing at initial display</t>
@@ -289,9 +620,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t xml:space="preserve">- NgayDangKy phải lớn hơn hoặc bằng với ngày hiện tại. NgaySinh không lớn hơn ngày hiện tại </t>
-  </si>
-  <si>
     <t>Maximum value</t>
   </si>
   <si>
@@ -319,41 +647,198 @@
     <t>required</t>
   </si>
   <si>
-    <t>Click Export</t>
-  </si>
-  <si>
     <t>Ｎｏ</t>
   </si>
   <si>
     <t>Action</t>
   </si>
   <si>
-    <t>DAO</t>
-  </si>
-  <si>
-    <t>BLO</t>
-  </si>
-  <si>
     <t>VIEW</t>
   </si>
   <si>
-    <t>Tìm kiếm hội viên</t>
-  </si>
-  <si>
-    <t>Student,Provide_Dai_Dan,Dai_Dan DbConnect.cs</t>
-  </si>
-  <si>
-    <t>SearchMember.cs</t>
-  </si>
-  <si>
     <t>SearchCondition.xaml</t>
+  </si>
+  <si>
+    <t>Họ Tên</t>
+  </si>
+  <si>
+    <t>Quốc Tịch</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
+  </si>
+  <si>
+    <t>Số Điện Thoại</t>
+  </si>
+  <si>
+    <t>Ngày Đăng Ký</t>
+  </si>
+  <si>
+    <t>Tìm Kiếm</t>
+  </si>
+  <si>
+    <t>Xuất File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Khi admin nhập vào những thông tin mình cần tìm kiếm vào textbox Tìm Kiếm  trong form tìm kiếm nhanh, sau đó admin click vào button Search hệ thống sẽ hiển thị thông tin tìm kiếm ở bên dưới </t>
+  </si>
+  <si>
+    <t>- Khi admin click vào buttton Xuất File, hệ thống xuất file Word bao gồm danh sách hội viên được tìm kiếm và thông tin số mã vạch, đăng ký,  họ tên, quốc tịch, địa chỉ số điện thoại, hình, ngày đăng ký, ngày sinh, nơi sinh, lớp đăng ký và các đai đẳn đạt được</t>
+  </si>
+  <si>
+    <t>txtTimKiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Ngày Đăng Ký phải lớn hơn hoặc bằng với ngày hiện tại. Ngày Sinh không lớn hơn ngày hiện tại </t>
+  </si>
+  <si>
+    <t>btnTimKiem</t>
+  </si>
+  <si>
+    <t>btnXuatFile</t>
+  </si>
+  <si>
+    <t>{0} and {1} are not consistent</t>
+  </si>
+  <si>
+    <t>{0} or {1} invalid</t>
+  </si>
+  <si>
+    <t>Pass Point of { 1 } course is not consistent with {0} for {2} status.</t>
+  </si>
+  <si>
+    <t>{ 0 } is greater than { 1 } and less than { 2 }</t>
+  </si>
+  <si>
+    <t>{ 0 } は、全角カタカナで入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、全角で入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、半角英数字で入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、半角英数字、+ - . で入力してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ 0 } không có dữ liệu cần tìm kiếm </t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>{ 0 } は、半角数字で入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } lỗi xuất file</t>
+  </si>
+  <si>
+    <t>AKD-MS003-E</t>
+  </si>
+  <si>
+    <t>メールアドレス に使用することができない文字が使用されています。使用することができる文字（A～Z a～z @ . _ -）を使用してください。</t>
+  </si>
+  <si>
+    <t>That character cannnot used for email address. Please use character (A-Z a-z @._-)</t>
+  </si>
+  <si>
+    <t>{ 0 } が入力されていません。</t>
+  </si>
+  <si>
+    <t>AKD-MS002-E</t>
+  </si>
+  <si>
+    <t>{0} must be less than {1}</t>
+  </si>
+  <si>
+    <t>AKD-MS001-E</t>
+  </si>
+  <si>
+    <t>日本語メッセージ</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>* The message is displayed in the format of "AKD003".</t>
+  </si>
+  <si>
+    <t>Không xuất được file word</t>
+  </si>
+  <si>
+    <t>{0}: xuất file bị lỗi</t>
+  </si>
+  <si>
+    <t>Không có dữ liều cần tìm kiếm</t>
+  </si>
+  <si>
+    <t>{0}: tìm kiếm</t>
+  </si>
+  <si>
+    <t>3. Mapping Action and Class</t>
+  </si>
+  <si>
+    <t>DAO Layer</t>
+  </si>
+  <si>
+    <t>BLO Layer</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tìm kiếm</t>
+  </si>
+  <si>
+    <t>Student_Model.cs, AccessDB_DAO.cs</t>
+  </si>
+  <si>
+    <t>SearchMember_BLO.cs</t>
+  </si>
+  <si>
+    <t>Xuất file excel</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Chuyển form xem chi tiết hội viên</t>
+  </si>
+  <si>
+    <t>RegisterNumber</t>
+  </si>
+  <si>
+    <t>RegisterMember_BLO.cs</t>
+  </si>
+  <si>
+    <t>RegisterMemberScreen.xaml</t>
+  </si>
+  <si>
+    <t>Xuất File excel</t>
+  </si>
+  <si>
+    <t>AKD-MS011-E</t>
+  </si>
+  <si>
+    <t>AKD-MS010-E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +918,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,14 +984,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="40">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -481,28 +996,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -874,72 +1371,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -952,31 +1384,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -989,332 +1402,478 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1322,112 +1881,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1450,6 +1930,377 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>594360</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 38"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620" y="167640"/>
+          <a:ext cx="4525617" cy="426720"/>
+          <a:chOff x="1" y="61"/>
+          <a:chExt cx="746" cy="28"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="68539"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1" y="61"/>
+            <a:ext cx="746" cy="28"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 25"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1" y="67"/>
+            <a:ext cx="119" cy="18"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 26"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="127" y="66"/>
+            <a:ext cx="84" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 27"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="213" y="67"/>
+            <a:ext cx="162" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Message definition</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 28"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="375" y="68"/>
+            <a:ext cx="125" cy="16"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 29"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="501" y="67"/>
+            <a:ext cx="242" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2142,73 +2993,48 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>116790</xdr:rowOff>
+      <xdr:colOff>44826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9492727" cy="3766969"/>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596626</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129443</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 1"/>
+        <xdr:cNvPr id="15" name="Picture 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="15240" y="1172634"/>
-          <a:ext cx="9492727" cy="3766969"/>
+          <a:off x="44826" y="761999"/>
+          <a:ext cx="9480647" cy="3769115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2218,8 +3044,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428413</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
@@ -2233,9 +3059,9 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="11873653" cy="510540"/>
+          <a:ext cx="10811086" cy="510540"/>
           <a:chOff x="3" y="2"/>
-          <a:chExt cx="1197" cy="52"/>
+          <a:chExt cx="1330" cy="52"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -2492,7 +3318,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="769" y="11"/>
+            <a:off x="774" y="5"/>
             <a:ext cx="420" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2660,7 +3486,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="178" y="31"/>
+            <a:off x="211" y="32"/>
             <a:ext cx="402" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2737,7 +3563,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="768" y="34"/>
+            <a:off x="901" y="25"/>
             <a:ext cx="432" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2905,7 +3731,206 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2097754" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="1798320"/>
+          <a:ext cx="2097754" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hiển thị thông tin form Tìm Kiếm </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Nhanh</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5017977" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2865120" y="1775460"/>
+          <a:ext cx="5017977" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Admin nhập vào những thông tin cần tìm kiếm vào textbox Tìm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Kiếm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> trong form Tìm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Kiếm Nhanh</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1055417" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5545667" y="5604933"/>
+          <a:ext cx="1055417" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>SKU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>MemberName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Day_Register</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Day_of_Birth</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3126,15 +4151,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:colOff>1242060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3145,8 +4170,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7101840" y="60960"/>
-          <a:ext cx="2156460" cy="106680"/>
+          <a:off x="7574280" y="38100"/>
+          <a:ext cx="4267200" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3339,16 +4364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:rowOff>243840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1203960</xdr:colOff>
+      <xdr:colOff>708660</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
+      <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3359,8 +4384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7094220" y="167640"/>
-          <a:ext cx="2164080" cy="0"/>
+          <a:off x="6979920" y="243840"/>
+          <a:ext cx="4328160" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3635,7 +4660,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4238,681 +5263,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2455333</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>663787</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 199"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9177866" cy="663787"/>
-          <a:chOff x="0" y="2"/>
-          <a:chExt cx="1121" cy="52"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="32468"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="2"/>
-            <a:ext cx="1121" cy="52"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 201"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="287" y="10"/>
-            <a:ext cx="274" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen item definition</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 202"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="565" y="11"/>
-            <a:ext cx="155" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>system-name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Text Box 203"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="727" y="9"/>
-            <a:ext cx="384" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>Aidiko dojo's Member Management</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Text Box 204"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="163" y="10"/>
-            <a:ext cx="122" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 205"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="566" y="34"/>
-            <a:ext cx="155" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen ID</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Text Box 206"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="161" y="34"/>
-            <a:ext cx="394" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> Quick Search </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Text Box 207"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="725" y="33"/>
-            <a:ext cx="393" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD004</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Text Box 208"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4" y="11"/>
-            <a:ext cx="154" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Form number</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Text Box 209"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3" y="34"/>
-            <a:ext cx="154" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>screen name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="01_Screen Layout"/>
-      <sheetName val="02_Item Definition"/>
-      <sheetName val="03_Definition"/>
-      <sheetName val="04_check Condition Monadic"/>
-      <sheetName val="05_Check Condition"/>
-      <sheetName val="06_Mapping Class, Action"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5177,11 +5527,1331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G165"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="88" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="88" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" style="87" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="87" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="56.35" customHeight="1"/>
+    <row r="2" spans="1:5" s="100" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A4" s="97">
+        <v>1</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A5" s="90">
+        <v>2</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" hidden="1" customHeight="1">
+      <c r="A6" s="97">
+        <v>3</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="97"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A11" s="97"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A12" s="97"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A14" s="97"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="91"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="91"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="91"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="91"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="91"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="91"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="91"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="91"/>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="91"/>
+    </row>
+    <row r="29" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="91"/>
+    </row>
+    <row r="30" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="91"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="91"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="91"/>
+    </row>
+    <row r="33" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="91"/>
+    </row>
+    <row r="34" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="91"/>
+    </row>
+    <row r="35" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="91"/>
+    </row>
+    <row r="36" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="91"/>
+    </row>
+    <row r="37" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="91"/>
+    </row>
+    <row r="38" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="91"/>
+    </row>
+    <row r="39" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="91"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="91"/>
+    </row>
+    <row r="41" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="91"/>
+    </row>
+    <row r="42" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="91"/>
+    </row>
+    <row r="43" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A43" s="94"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="93"/>
+    </row>
+    <row r="44" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="91"/>
+    </row>
+    <row r="45" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="91"/>
+    </row>
+    <row r="46" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="91"/>
+    </row>
+    <row r="47" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A47" s="92"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="91"/>
+    </row>
+    <row r="48" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="91"/>
+    </row>
+    <row r="49" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="91"/>
+    </row>
+    <row r="50" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="91"/>
+    </row>
+    <row r="51" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A51" s="92"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="91"/>
+    </row>
+    <row r="52" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A52" s="92"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="91"/>
+    </row>
+    <row r="53" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A53" s="92"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="91"/>
+    </row>
+    <row r="54" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A54" s="92"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="91"/>
+    </row>
+    <row r="55" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A55" s="92"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="91"/>
+    </row>
+    <row r="56" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A56" s="92"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="91"/>
+    </row>
+    <row r="57" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A57" s="92"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="91"/>
+    </row>
+    <row r="58" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A58" s="92"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="91"/>
+    </row>
+    <row r="59" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A59" s="92"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="91"/>
+    </row>
+    <row r="60" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A60" s="92"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="91"/>
+    </row>
+    <row r="61" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A61" s="92"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="91"/>
+    </row>
+    <row r="62" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A62" s="92"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="91"/>
+    </row>
+    <row r="63" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A63" s="92"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="91"/>
+    </row>
+    <row r="64" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A64" s="92"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="91"/>
+    </row>
+    <row r="65" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="91"/>
+    </row>
+    <row r="66" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A66" s="92"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="91"/>
+    </row>
+    <row r="67" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A67" s="92"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="91"/>
+    </row>
+    <row r="68" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A68" s="92"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="91"/>
+    </row>
+    <row r="69" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A69" s="92"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="91"/>
+    </row>
+    <row r="70" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A70" s="92"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="91"/>
+    </row>
+    <row r="71" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A71" s="92"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="91"/>
+    </row>
+    <row r="72" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A72" s="92"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="91"/>
+    </row>
+    <row r="73" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A73" s="92"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="91"/>
+    </row>
+    <row r="74" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="91"/>
+    </row>
+    <row r="75" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A75" s="92"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="91"/>
+    </row>
+    <row r="76" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A76" s="92"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="91"/>
+    </row>
+    <row r="77" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A77" s="92"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="91"/>
+    </row>
+    <row r="78" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A78" s="92"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="91"/>
+    </row>
+    <row r="79" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A79" s="92"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="91"/>
+    </row>
+    <row r="80" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A80" s="92"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="91"/>
+    </row>
+    <row r="81" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A81" s="92"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="91"/>
+    </row>
+    <row r="82" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A82" s="92"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="91"/>
+    </row>
+    <row r="83" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A83" s="92"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="91"/>
+    </row>
+    <row r="84" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A84" s="92"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="91"/>
+    </row>
+    <row r="85" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A85" s="92"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="91"/>
+    </row>
+    <row r="86" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A86" s="92"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="91"/>
+    </row>
+    <row r="87" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A87" s="92"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="91"/>
+    </row>
+    <row r="88" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A88" s="92"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="91"/>
+    </row>
+    <row r="89" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A89" s="92"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="91"/>
+    </row>
+    <row r="90" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A90" s="92"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="91"/>
+    </row>
+    <row r="91" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A91" s="92"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="91"/>
+    </row>
+    <row r="92" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A92" s="92"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="91"/>
+    </row>
+    <row r="93" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A93" s="92"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="91"/>
+    </row>
+    <row r="94" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A94" s="92"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="91"/>
+    </row>
+    <row r="95" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A95" s="92"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="91"/>
+    </row>
+    <row r="96" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A96" s="92"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="91"/>
+    </row>
+    <row r="97" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A97" s="92"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="91"/>
+    </row>
+    <row r="98" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A98" s="92"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="91"/>
+    </row>
+    <row r="99" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A99" s="92"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="91"/>
+    </row>
+    <row r="100" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A100" s="92"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="91"/>
+    </row>
+    <row r="101" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A101" s="92"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="91"/>
+    </row>
+    <row r="102" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A102" s="92"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="91"/>
+    </row>
+    <row r="103" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A103" s="92"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="91"/>
+    </row>
+    <row r="104" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A104" s="92"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="91"/>
+    </row>
+    <row r="105" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A105" s="92"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="91"/>
+    </row>
+    <row r="106" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A106" s="92"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="91"/>
+    </row>
+    <row r="107" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A107" s="92"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="91"/>
+    </row>
+    <row r="108" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A108" s="92"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="91"/>
+    </row>
+    <row r="109" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A109" s="92"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="91"/>
+    </row>
+    <row r="110" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A110" s="92"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="91"/>
+    </row>
+    <row r="111" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A111" s="92"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="91"/>
+    </row>
+    <row r="112" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A112" s="92"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="91"/>
+    </row>
+    <row r="113" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A113" s="92"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="91"/>
+    </row>
+    <row r="114" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A114" s="92"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="91"/>
+    </row>
+    <row r="115" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A115" s="92"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="91"/>
+    </row>
+    <row r="116" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A116" s="92"/>
+      <c r="B116" s="92"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="91"/>
+    </row>
+    <row r="117" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A117" s="92"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="91"/>
+    </row>
+    <row r="118" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A118" s="92"/>
+      <c r="B118" s="92"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="91"/>
+    </row>
+    <row r="119" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A119" s="92"/>
+      <c r="B119" s="92"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="91"/>
+    </row>
+    <row r="120" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A120" s="92"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="92"/>
+      <c r="E120" s="91"/>
+    </row>
+    <row r="121" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A121" s="92"/>
+      <c r="B121" s="92"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="91"/>
+    </row>
+    <row r="122" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A122" s="92"/>
+      <c r="B122" s="92"/>
+      <c r="C122" s="92"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="91"/>
+    </row>
+    <row r="123" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A123" s="92"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="92"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="91"/>
+    </row>
+    <row r="124" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A124" s="92"/>
+      <c r="B124" s="92"/>
+      <c r="C124" s="92"/>
+      <c r="D124" s="92"/>
+      <c r="E124" s="91"/>
+    </row>
+    <row r="125" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A125" s="92"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="91"/>
+    </row>
+    <row r="126" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A126" s="92"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="91"/>
+    </row>
+    <row r="127" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A127" s="92"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="91"/>
+    </row>
+    <row r="128" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A128" s="92"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="91"/>
+    </row>
+    <row r="129" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A129" s="92"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="92"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="91"/>
+    </row>
+    <row r="130" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A130" s="92"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="92"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="91"/>
+    </row>
+    <row r="131" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A131" s="92"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="92"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="91"/>
+    </row>
+    <row r="132" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A132" s="92"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="92"/>
+      <c r="D132" s="92"/>
+      <c r="E132" s="91"/>
+    </row>
+    <row r="133" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A133" s="92"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="92"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="91"/>
+    </row>
+    <row r="134" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A134" s="92"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="92"/>
+      <c r="D134" s="92"/>
+      <c r="E134" s="91"/>
+    </row>
+    <row r="135" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A135" s="92"/>
+      <c r="B135" s="92"/>
+      <c r="C135" s="92"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="91"/>
+    </row>
+    <row r="136" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A136" s="92"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="92"/>
+      <c r="D136" s="92"/>
+      <c r="E136" s="91"/>
+    </row>
+    <row r="137" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A137" s="92"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="92"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="91"/>
+    </row>
+    <row r="138" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A138" s="92"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="92"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="91"/>
+    </row>
+    <row r="139" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A139" s="92"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="92"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="91"/>
+    </row>
+    <row r="140" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A140" s="92"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="91"/>
+    </row>
+    <row r="141" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A141" s="92">
+        <f t="shared" ref="A141:A165" si="0">ROW()-3</f>
+        <v>138</v>
+      </c>
+      <c r="B141" s="92"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="91"/>
+    </row>
+    <row r="142" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A142" s="92">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="B142" s="92"/>
+      <c r="C142" s="92"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="91"/>
+    </row>
+    <row r="143" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A143" s="92">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="B143" s="92"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="92"/>
+      <c r="E143" s="91"/>
+    </row>
+    <row r="144" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A144" s="92">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B144" s="92"/>
+      <c r="C144" s="92"/>
+      <c r="D144" s="92"/>
+      <c r="E144" s="91"/>
+    </row>
+    <row r="145" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A145" s="92">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="B145" s="92"/>
+      <c r="C145" s="92"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="91"/>
+    </row>
+    <row r="146" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A146" s="92">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="B146" s="92"/>
+      <c r="C146" s="92"/>
+      <c r="D146" s="92"/>
+      <c r="E146" s="91"/>
+    </row>
+    <row r="147" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A147" s="92">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="B147" s="92"/>
+      <c r="C147" s="92"/>
+      <c r="D147" s="92"/>
+      <c r="E147" s="91"/>
+    </row>
+    <row r="148" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A148" s="92">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="B148" s="92"/>
+      <c r="C148" s="92"/>
+      <c r="D148" s="92"/>
+      <c r="E148" s="91"/>
+    </row>
+    <row r="149" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A149" s="92">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="B149" s="92"/>
+      <c r="C149" s="92"/>
+      <c r="D149" s="92"/>
+      <c r="E149" s="91"/>
+    </row>
+    <row r="150" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A150" s="92">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="B150" s="92"/>
+      <c r="C150" s="92"/>
+      <c r="D150" s="92"/>
+      <c r="E150" s="91"/>
+    </row>
+    <row r="151" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A151" s="92">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="B151" s="92"/>
+      <c r="C151" s="92"/>
+      <c r="D151" s="92"/>
+      <c r="E151" s="91"/>
+    </row>
+    <row r="152" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A152" s="92">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B152" s="92"/>
+      <c r="C152" s="92"/>
+      <c r="D152" s="92"/>
+      <c r="E152" s="91"/>
+    </row>
+    <row r="153" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A153" s="92">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="B153" s="92"/>
+      <c r="C153" s="92"/>
+      <c r="D153" s="92"/>
+      <c r="E153" s="91"/>
+    </row>
+    <row r="154" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A154" s="92">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="B154" s="92"/>
+      <c r="C154" s="92"/>
+      <c r="D154" s="92"/>
+      <c r="E154" s="91"/>
+    </row>
+    <row r="155" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A155" s="92">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="B155" s="92"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="92"/>
+      <c r="E155" s="91"/>
+    </row>
+    <row r="156" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A156" s="92">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="B156" s="92"/>
+      <c r="C156" s="92"/>
+      <c r="D156" s="92"/>
+      <c r="E156" s="91"/>
+    </row>
+    <row r="157" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A157" s="92">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="B157" s="92"/>
+      <c r="C157" s="92"/>
+      <c r="D157" s="92"/>
+      <c r="E157" s="91"/>
+    </row>
+    <row r="158" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A158" s="92">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="B158" s="92"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="91"/>
+    </row>
+    <row r="159" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A159" s="92">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="B159" s="92"/>
+      <c r="C159" s="92"/>
+      <c r="D159" s="92"/>
+      <c r="E159" s="91"/>
+    </row>
+    <row r="160" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A160" s="92">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="B160" s="92"/>
+      <c r="C160" s="92"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="91"/>
+    </row>
+    <row r="161" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A161" s="92">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="B161" s="92"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="92"/>
+      <c r="E161" s="91"/>
+    </row>
+    <row r="162" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A162" s="92">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="B162" s="92"/>
+      <c r="C162" s="92"/>
+      <c r="D162" s="92"/>
+      <c r="E162" s="91"/>
+    </row>
+    <row r="163" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A163" s="92">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="B163" s="92"/>
+      <c r="C163" s="92"/>
+      <c r="D163" s="92"/>
+      <c r="E163" s="91"/>
+    </row>
+    <row r="164" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A164" s="92">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="B164" s="92"/>
+      <c r="C164" s="92"/>
+      <c r="D164" s="92"/>
+      <c r="E164" s="91"/>
+    </row>
+    <row r="165" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A165" s="90">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="B165" s="90"/>
+      <c r="C165" s="90"/>
+      <c r="D165" s="90"/>
+      <c r="E165" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.21" top="0.38" bottom="0.34" header="0.38" footer="0.2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;F</oddHeader>
+    <oddFooter>&amp;L&amp;9Copyright(c) 2008 HJ All rights reserved.&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -5203,713 +6873,713 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="21" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="21" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="20" customWidth="1"/>
     <col min="14" max="14" width="35.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="1.109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="78" customFormat="1" ht="56.35" customHeight="1">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="83"/>
+    <row r="1" spans="1:14" s="73" customFormat="1" ht="56.35" customHeight="1">
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="41" t="s">
+      <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="17.350000000000001" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33">
+      <c r="B3" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32">
         <v>100</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>15</v>
+      <c r="G3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.350000000000001" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="33" t="s">
+      <c r="B4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>15</v>
+      <c r="I4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="36" t="s">
+      <c r="B5" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="33" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>15</v>
+      <c r="I5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>15</v>
+      <c r="I6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>15</v>
+      <c r="I7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="33" t="s">
+      <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>15</v>
+      <c r="I8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="B9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>15</v>
+      <c r="I9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>15</v>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F15" s="24"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F18" s="24"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="5:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="M33" s="24"/>
+      <c r="B11" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:14" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="1:13" ht="13.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:13" ht="13.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13" ht="13.35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:13" ht="13.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13" ht="13.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="1:13" ht="13.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.43307086614173229" bottom="0.35433070866141736" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -5921,401 +7591,505 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:L16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="42"/>
-    <col min="2" max="2" width="10.77734375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="42"/>
-    <col min="5" max="5" width="12.33203125" style="42" customWidth="1"/>
-    <col min="6" max="10" width="8.88671875" style="42"/>
-    <col min="11" max="11" width="8.5546875" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="1" width="8.88671875" style="41"/>
+    <col min="2" max="2" width="10.77734375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="41" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="41"/>
+    <col min="9" max="9" width="9.44140625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="41"/>
+    <col min="11" max="11" width="16.44140625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="41"/>
+    <col min="13" max="13" width="20.5546875" style="41" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="85" t="s">
+      <c r="A1" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="133"/>
+      <c r="H1" s="134" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="136"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="A2" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="140"/>
+      <c r="C2" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="140" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="140"/>
+      <c r="H2" s="149" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="151"/>
+    </row>
+    <row r="3" spans="1:12" ht="42" customHeight="1">
+      <c r="A3" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="140"/>
+      <c r="C3" s="153" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="155"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="143" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="144"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="148"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.35">
+      <c r="A6" s="152" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+    </row>
+    <row r="9" spans="1:12" ht="40.85" customHeight="1">
+      <c r="A9" s="42">
+        <v>1</v>
+      </c>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="160"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.35">
+      <c r="A11" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+    </row>
+    <row r="14" spans="1:12" ht="39" customHeight="1">
+      <c r="A14" s="42">
+        <v>1</v>
+      </c>
+      <c r="B14" s="167" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="170" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+    </row>
+    <row r="15" spans="1:12" ht="40.200000000000003" customHeight="1">
+      <c r="A15" s="42">
+        <v>2</v>
+      </c>
+      <c r="B15" s="164" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="139"/>
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1">
+      <c r="A16" s="80">
+        <v>3</v>
+      </c>
+      <c r="B16" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="168" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+    </row>
+    <row r="17" spans="1:13" ht="40.85" customHeight="1">
+      <c r="A17" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+    </row>
+    <row r="18" spans="1:13" ht="42.85" customHeight="1">
+      <c r="A18" s="117"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.85" customHeight="1">
+      <c r="A19" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="124" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="125"/>
+      <c r="D19" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="125"/>
+      <c r="L19" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="125"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.7">
+      <c r="A20" s="172"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="132"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="129"/>
+    </row>
+    <row r="21" spans="1:13" ht="62.7" customHeight="1">
+      <c r="A21" s="118">
+        <v>1</v>
+      </c>
+      <c r="B21" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="122"/>
+      <c r="D21" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="125"/>
+      <c r="L21" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="88"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="101" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103"/>
-    </row>
-    <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="107"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="45">
-        <v>1</v>
-      </c>
-      <c r="B9" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
-    </row>
-    <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="45">
-        <v>1</v>
-      </c>
-      <c r="B14" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="45">
+      <c r="M21" s="125"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.7">
+      <c r="A22" s="118">
         <v>2</v>
       </c>
-      <c r="B15" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="44">
+      <c r="B22" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="122"/>
+      <c r="D22" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="122"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="127"/>
+    </row>
+    <row r="23" spans="1:13" ht="27" customHeight="1">
+      <c r="A23" s="119">
         <v>3</v>
       </c>
-      <c r="B16" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-    </row>
-    <row r="17" spans="1:12" ht="40.85" customHeight="1"/>
-    <row r="18" spans="1:12" ht="42.7" customHeight="1"/>
-    <row r="19" spans="1:12" ht="12.85" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="43"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="43"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-    </row>
-    <row r="23" spans="1:12" ht="27" customHeight="1"/>
-    <row r="24" spans="1:12" ht="40.200000000000003" customHeight="1"/>
-    <row r="26" spans="1:12" ht="11.35" customHeight="1"/>
-    <row r="27" spans="1:12" ht="15" customHeight="1"/>
-    <row r="28" spans="1:12" ht="15" customHeight="1"/>
+      <c r="B23" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="122"/>
+      <c r="D23" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="122"/>
+      <c r="J23" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="122"/>
+      <c r="L23" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="122"/>
+    </row>
+    <row r="24" spans="1:13" ht="40.200000000000003" customHeight="1"/>
+    <row r="26" spans="1:13" ht="11.35" customHeight="1"/>
+    <row r="27" spans="1:13" ht="15" customHeight="1"/>
+    <row r="28" spans="1:13" ht="15" customHeight="1"/>
     <row r="51" spans="1:11" ht="20.7">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="161"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="161"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="161"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="161"/>
     </row>
     <row r="54" spans="1:11" ht="13.35">
-      <c r="A54" s="112"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="163"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="163"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="163"/>
     </row>
     <row r="55" spans="1:11" ht="13.35">
-      <c r="A55" s="112"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="113"/>
+      <c r="A55" s="162"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="163"/>
+      <c r="F55" s="163"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="163"/>
+      <c r="J55" s="163"/>
+      <c r="K55" s="163"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="112"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
+      <c r="A56" s="162"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="162"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="97"/>
-      <c r="B57" s="97"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
+      <c r="A57" s="145"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="97"/>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
+      <c r="A58" s="145"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="145"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="97"/>
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
+      <c r="A59" s="145"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="145"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="145"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="97"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
+      <c r="A60" s="145"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="145"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="145"/>
+      <c r="J60" s="145"/>
+      <c r="K60" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A55:K55"/>
+  <mergeCells count="55">
     <mergeCell ref="A56:K56"/>
     <mergeCell ref="A57:K57"/>
     <mergeCell ref="E13:L13"/>
@@ -6325,10 +8099,7 @@
     <mergeCell ref="E16:L16"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:L14"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -6343,8 +8114,8 @@
     <mergeCell ref="A58:K58"/>
     <mergeCell ref="A51:K51"/>
     <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A55:K55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -6355,6 +8126,25 @@
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6363,15 +8153,16 @@
 </oddHeader>
     <oddFooter>&amp;LCopyright(c) 2008 HJ All rights reserved.&amp;R3-&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
@@ -6380,10 +8171,10 @@
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="6.109375" style="48" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="6.109375" style="45" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="45" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="1" customWidth="1"/>
@@ -6393,788 +8184,790 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="78" customFormat="1" ht="47.35" customHeight="1">
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="L1" s="80"/>
-      <c r="O1" s="80"/>
+    <row r="1" spans="1:15" s="73" customFormat="1" ht="47.35" customHeight="1">
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="L1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="56"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="107.35">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="49" customFormat="1" ht="54" customHeight="1">
-      <c r="A4" s="61">
+      <c r="D3" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="46" customFormat="1" ht="54" customHeight="1">
+      <c r="A4" s="58">
         <f t="shared" ref="A4:A10" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="63">
+      <c r="B4" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="59">
         <v>100</v>
       </c>
-      <c r="M4" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="49" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="66">
+      <c r="M4" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="46" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A5" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="71">
-        <v>20</v>
-      </c>
-      <c r="M5" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="49" customFormat="1" ht="17.350000000000001" customHeight="1">
-      <c r="A6" s="66">
+      <c r="B5" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="46" customFormat="1" ht="17.350000000000001" customHeight="1">
+      <c r="A6" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="71">
-        <v>50</v>
-      </c>
-      <c r="M6" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="49" customFormat="1">
-      <c r="A7" s="66">
+      <c r="B6" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="46" customFormat="1">
+      <c r="A7" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="71">
-        <v>20</v>
-      </c>
-      <c r="M7" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="49" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="66">
+      <c r="B7" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="46" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="70" t="s">
+      <c r="B8" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="71">
-        <v>100</v>
-      </c>
-      <c r="M8" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="49" customFormat="1">
-      <c r="A9" s="66">
+      <c r="C8" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="46" customFormat="1">
+      <c r="A9" s="61">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="71">
-        <v>20</v>
-      </c>
-      <c r="M9" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="81" customFormat="1">
-      <c r="A10" s="73">
+      <c r="B9" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="76" customFormat="1">
+      <c r="A10" s="68">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="49" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" s="49" customFormat="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:15" s="49" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:15" s="49" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:15" s="49" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="B10" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="46" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:15" s="46" customFormat="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:15" s="46" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:15" s="46" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:15" s="46" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
     </row>
     <row r="32" spans="1:15" ht="13.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
@@ -7189,15 +8982,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -7214,123 +9007,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1">
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.7" customHeight="1">
-      <c r="A5" s="6">
-        <f>ROW()-4</f>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="132" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A5" s="108">
         <v>1</v>
       </c>
-      <c r="G5" s="134" t="s">
+      <c r="B5" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="H5" s="130" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.7" customHeight="1">
-      <c r="A6" s="4">
-        <f>ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="131"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.35" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
+    </row>
+    <row r="7" spans="1:8" ht="26.35" customHeight="1"/>
     <row r="8" spans="1:8" ht="26.35" customHeight="1"/>
     <row r="9" spans="1:8" ht="26.35" customHeight="1"/>
     <row r="10" spans="1:8" ht="31.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-  </mergeCells>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -7338,321 +9123,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35"/>
-  <cols>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
-    <col min="11" max="24" width="8.88671875" style="149"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="11.35">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="70" customHeight="1">
-      <c r="A3" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="143" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="145">
-        <v>1</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="146" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="148" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="137"/>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="149"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="149"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="149"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="149"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="149"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="149"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="149"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="149"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-    </row>
-    <row r="15" spans="1:24" s="149" customFormat="1">
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-    </row>
-    <row r="16" spans="1:24" s="149" customFormat="1">
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-    </row>
-    <row r="17" s="149" customFormat="1"/>
-    <row r="18" s="149" customFormat="1"/>
-    <row r="19" s="149" customFormat="1"/>
-    <row r="20" s="149" customFormat="1"/>
-    <row r="21" s="149" customFormat="1"/>
-    <row r="22" s="149" customFormat="1"/>
-    <row r="23" s="149" customFormat="1"/>
-    <row r="24" s="149" customFormat="1"/>
-    <row r="25" s="149" customFormat="1"/>
-    <row r="26" s="149" customFormat="1"/>
-    <row r="27" s="149" customFormat="1"/>
-    <row r="28" s="149" customFormat="1"/>
-    <row r="29" s="149" customFormat="1"/>
-    <row r="30" s="149" customFormat="1"/>
-    <row r="31" s="149" customFormat="1"/>
-    <row r="32" s="149" customFormat="1"/>
-    <row r="33" s="149" customFormat="1"/>
-    <row r="34" s="149" customFormat="1"/>
-    <row r="35" s="149" customFormat="1"/>
-    <row r="36" s="149" customFormat="1"/>
-    <row r="37" s="149" customFormat="1"/>
-    <row r="38" s="149" customFormat="1"/>
-    <row r="39" s="149" customFormat="1"/>
-    <row r="40" s="149" customFormat="1"/>
-    <row r="41" s="149" customFormat="1"/>
-    <row r="42" s="149" customFormat="1"/>
-    <row r="43" s="149" customFormat="1"/>
-    <row r="44" s="149" customFormat="1"/>
-    <row r="45" s="149" customFormat="1"/>
-    <row r="46" s="149" customFormat="1"/>
-    <row r="47" s="149" customFormat="1"/>
-    <row r="48" s="149" customFormat="1"/>
-    <row r="49" s="149" customFormat="1"/>
-    <row r="50" s="149" customFormat="1"/>
-    <row r="51" s="149" customFormat="1"/>
-    <row r="52" s="149" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/design-document/SearchQuick.xlsx
+++ b/design-document/SearchQuick.xlsx
@@ -4,31 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653"/>
   </bookViews>
   <sheets>
-    <sheet name="Message" sheetId="8" r:id="rId1"/>
-    <sheet name="01_Screen layout" sheetId="3" r:id="rId2"/>
-    <sheet name="02_Item definition" sheetId="4" r:id="rId3"/>
-    <sheet name="03_definition" sheetId="5" r:id="rId4"/>
-    <sheet name="04_Check Condition Monadic" sheetId="6" r:id="rId5"/>
-    <sheet name="05_Check Condition" sheetId="2" r:id="rId6"/>
+    <sheet name="01_Screen layout" sheetId="3" r:id="rId1"/>
+    <sheet name="02_Item definition" sheetId="4" r:id="rId2"/>
+    <sheet name="03_definition" sheetId="5" r:id="rId3"/>
+    <sheet name="04_Check Condition Monadic" sheetId="6" r:id="rId4"/>
+    <sheet name="05_Check Condition" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'01_Screen layout'!$A$1:$P$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'02_Item definition'!$A$1:$N$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'03_definition'!$A$1:$M$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'04_Check Condition Monadic'!$A$1:$O$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'05_Check Condition'!$A$1:$I$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Message!$A$1:$D$165</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'01_Screen layout'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'02_Item definition'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'04_Check Condition Monadic'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'05_Check Condition'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Message!$1:$3</definedName>
-    <definedName name="YAJI_MT_登録仕訳" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen layout'!$A$1:$P$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_definition'!$A$1:$M$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Condition Monadic'!$A$1:$O$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'05_Check Condition'!$A$1:$I$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen layout'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item definition'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Condition Monadic'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'05_Check Condition'!$1:$4</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
-    <definedName name="ああ" localSheetId="0">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -40,390 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate kieu so khong dau
-            9</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate so thap phan co dau +, - 
-             0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-is required</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Cau thong bao cho truong co format Email</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Cau thong bao cho truong co format Email</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate kieu so khong dau
-            9</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate kieu so khong dau
-            9</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate so thap phan co dau +, - 
-             0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate so thap phan co dau +, - 
-             0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate alpha-numeric, +, -
-               X</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate alpha-numeric, +, -
-               X</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate ky tu fullsize 2 byte, bao gom tieng Nhat
-           N</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate ky tu fullsize 2 byte, bao gom tieng Nhat
-           N</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate ky tu fullsize katakana
-             K</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Validate ky tu fullsize katakana
-             K</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
   <si>
     <t>-</t>
   </si>
@@ -696,79 +309,6 @@
   </si>
   <si>
     <t>btnXuatFile</t>
-  </si>
-  <si>
-    <t>{0} and {1} are not consistent</t>
-  </si>
-  <si>
-    <t>{0} or {1} invalid</t>
-  </si>
-  <si>
-    <t>Pass Point of { 1 } course is not consistent with {0} for {2} status.</t>
-  </si>
-  <si>
-    <t>{ 0 } is greater than { 1 } and less than { 2 }</t>
-  </si>
-  <si>
-    <t>{ 0 } は、全角カタカナで入力してください。</t>
-  </si>
-  <si>
-    <t>{ 0 } は、全角で入力してください。</t>
-  </si>
-  <si>
-    <t>{ 0 } は、半角英数字で入力してください。</t>
-  </si>
-  <si>
-    <t>{ 0 } は、半角英数字、+ - . で入力してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ 0 } không có dữ liệu cần tìm kiếm </t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>{ 0 } は、半角数字で入力してください。</t>
-  </si>
-  <si>
-    <t>{ 0 } lỗi xuất file</t>
-  </si>
-  <si>
-    <t>AKD-MS003-E</t>
-  </si>
-  <si>
-    <t>メールアドレス に使用することができない文字が使用されています。使用することができる文字（A～Z a～z @ . _ -）を使用してください。</t>
-  </si>
-  <si>
-    <t>That character cannnot used for email address. Please use character (A-Z a-z @._-)</t>
-  </si>
-  <si>
-    <t>{ 0 } が入力されていません。</t>
-  </si>
-  <si>
-    <t>AKD-MS002-E</t>
-  </si>
-  <si>
-    <t>{0} must be less than {1}</t>
-  </si>
-  <si>
-    <t>AKD-MS001-E</t>
-  </si>
-  <si>
-    <t>日本語メッセージ</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>* The message is displayed in the format of "AKD003".</t>
   </si>
   <si>
     <t>Không xuất được file word</t>
@@ -838,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,26 +466,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
@@ -985,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1375,19 +895,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1402,7 +909,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -1658,69 +1165,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1745,56 +1189,121 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1807,105 +1316,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1930,377 +1374,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>594360</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 38"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7620" y="167640"/>
-          <a:ext cx="4525617" cy="426720"/>
-          <a:chOff x="1" y="61"/>
-          <a:chExt cx="746" cy="28"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 24"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect t="68539"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1" y="61"/>
-            <a:ext cx="746" cy="28"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 25"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1" y="67"/>
-            <a:ext cx="119" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>Form number</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 26"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="127" y="66"/>
-            <a:ext cx="84" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Text Box 27"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="213" y="67"/>
-            <a:ext cx="162" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>Message definition</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Text Box 28"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="375" y="68"/>
-            <a:ext cx="125" cy="16"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>system-name</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 29"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="501" y="67"/>
-            <a:ext cx="242" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Aidiko dojo's Member Management</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2996,33 +2069,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>44826</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>125505</xdr:rowOff>
+      <xdr:colOff>617569</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>39843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>596626</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>129443</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168960</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>6100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="14" name="Picture 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44826" y="761999"/>
-          <a:ext cx="9480647" cy="3769115"/>
+          <a:off x="617569" y="956235"/>
+          <a:ext cx="7410450" cy="5962650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3031,10 +2110,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189255</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627529" y="876549"/>
+          <a:ext cx="7420785" cy="6056157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3731,7 +2872,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3930,7 +3071,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4660,7 +3801,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5527,1331 +4668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G165"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
-  <cols>
-    <col min="1" max="1" width="3.77734375" style="88" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="88" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" style="88" customWidth="1"/>
-    <col min="5" max="5" width="51.88671875" style="87" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="1.109375" style="87" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="87"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="56.35" customHeight="1"/>
-    <row r="2" spans="1:5" s="100" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="97">
-        <v>1</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="90">
-        <v>2</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.5" hidden="1" customHeight="1">
-      <c r="A6" s="97">
-        <v>3</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="103" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" hidden="1" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" hidden="1" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" hidden="1" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" hidden="1" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" hidden="1" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="96" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-    </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="91"/>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="91"/>
-    </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="91"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91"/>
-    </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="91"/>
-    </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="91"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="91"/>
-    </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-    </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-    </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="91"/>
-    </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="91"/>
-    </row>
-    <row r="29" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="91"/>
-    </row>
-    <row r="30" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="91"/>
-    </row>
-    <row r="31" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="91"/>
-    </row>
-    <row r="32" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="91"/>
-    </row>
-    <row r="33" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="91"/>
-    </row>
-    <row r="34" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="91"/>
-    </row>
-    <row r="35" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="91"/>
-    </row>
-    <row r="36" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="91"/>
-    </row>
-    <row r="37" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="91"/>
-    </row>
-    <row r="38" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="91"/>
-    </row>
-    <row r="39" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="91"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="91"/>
-    </row>
-    <row r="41" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="91"/>
-    </row>
-    <row r="42" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="91"/>
-    </row>
-    <row r="43" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="93"/>
-    </row>
-    <row r="44" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="91"/>
-    </row>
-    <row r="45" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="91"/>
-    </row>
-    <row r="46" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="91"/>
-    </row>
-    <row r="47" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="91"/>
-    </row>
-    <row r="48" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="91"/>
-    </row>
-    <row r="49" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="91"/>
-    </row>
-    <row r="50" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="91"/>
-    </row>
-    <row r="51" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A51" s="92"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="91"/>
-    </row>
-    <row r="52" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A52" s="92"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="91"/>
-    </row>
-    <row r="53" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A53" s="92"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="91"/>
-    </row>
-    <row r="54" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="91"/>
-    </row>
-    <row r="55" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A55" s="92"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="91"/>
-    </row>
-    <row r="56" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A56" s="92"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="91"/>
-    </row>
-    <row r="57" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A57" s="92"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="91"/>
-    </row>
-    <row r="58" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A58" s="92"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="91"/>
-    </row>
-    <row r="59" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A59" s="92"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="91"/>
-    </row>
-    <row r="60" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A60" s="92"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="91"/>
-    </row>
-    <row r="61" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A61" s="92"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="91"/>
-    </row>
-    <row r="62" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A62" s="92"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="91"/>
-    </row>
-    <row r="63" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A63" s="92"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="91"/>
-    </row>
-    <row r="64" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A64" s="92"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="91"/>
-    </row>
-    <row r="65" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A65" s="92"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="91"/>
-    </row>
-    <row r="66" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="91"/>
-    </row>
-    <row r="67" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A67" s="92"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="91"/>
-    </row>
-    <row r="68" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A68" s="92"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="91"/>
-    </row>
-    <row r="69" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A69" s="92"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="91"/>
-    </row>
-    <row r="70" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A70" s="92"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="91"/>
-    </row>
-    <row r="71" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A71" s="92"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="91"/>
-    </row>
-    <row r="72" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A72" s="92"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="91"/>
-    </row>
-    <row r="73" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A73" s="92"/>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="91"/>
-    </row>
-    <row r="74" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A74" s="92"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="91"/>
-    </row>
-    <row r="75" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A75" s="92"/>
-      <c r="B75" s="92"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="91"/>
-    </row>
-    <row r="76" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A76" s="92"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="91"/>
-    </row>
-    <row r="77" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A77" s="92"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="91"/>
-    </row>
-    <row r="78" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A78" s="92"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="91"/>
-    </row>
-    <row r="79" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A79" s="92"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="91"/>
-    </row>
-    <row r="80" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A80" s="92"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="91"/>
-    </row>
-    <row r="81" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A81" s="92"/>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="91"/>
-    </row>
-    <row r="82" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A82" s="92"/>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="91"/>
-    </row>
-    <row r="83" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A83" s="92"/>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="91"/>
-    </row>
-    <row r="84" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A84" s="92"/>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="92"/>
-      <c r="E84" s="91"/>
-    </row>
-    <row r="85" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A85" s="92"/>
-      <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="91"/>
-    </row>
-    <row r="86" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A86" s="92"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="91"/>
-    </row>
-    <row r="87" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A87" s="92"/>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="91"/>
-    </row>
-    <row r="88" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A88" s="92"/>
-      <c r="B88" s="92"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="91"/>
-    </row>
-    <row r="89" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A89" s="92"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="91"/>
-    </row>
-    <row r="90" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A90" s="92"/>
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="91"/>
-    </row>
-    <row r="91" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A91" s="92"/>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="91"/>
-    </row>
-    <row r="92" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A92" s="92"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="91"/>
-    </row>
-    <row r="93" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A93" s="92"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="91"/>
-    </row>
-    <row r="94" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A94" s="92"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="91"/>
-    </row>
-    <row r="95" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A95" s="92"/>
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="91"/>
-    </row>
-    <row r="96" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A96" s="92"/>
-      <c r="B96" s="92"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="91"/>
-    </row>
-    <row r="97" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A97" s="92"/>
-      <c r="B97" s="92"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="91"/>
-    </row>
-    <row r="98" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A98" s="92"/>
-      <c r="B98" s="92"/>
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="91"/>
-    </row>
-    <row r="99" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A99" s="92"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="91"/>
-    </row>
-    <row r="100" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A100" s="92"/>
-      <c r="B100" s="92"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="91"/>
-    </row>
-    <row r="101" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A101" s="92"/>
-      <c r="B101" s="92"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="91"/>
-    </row>
-    <row r="102" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A102" s="92"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="91"/>
-    </row>
-    <row r="103" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A103" s="92"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="91"/>
-    </row>
-    <row r="104" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A104" s="92"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="91"/>
-    </row>
-    <row r="105" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A105" s="92"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="91"/>
-    </row>
-    <row r="106" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A106" s="92"/>
-      <c r="B106" s="92"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="92"/>
-      <c r="E106" s="91"/>
-    </row>
-    <row r="107" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A107" s="92"/>
-      <c r="B107" s="92"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="91"/>
-    </row>
-    <row r="108" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A108" s="92"/>
-      <c r="B108" s="92"/>
-      <c r="C108" s="92"/>
-      <c r="D108" s="92"/>
-      <c r="E108" s="91"/>
-    </row>
-    <row r="109" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A109" s="92"/>
-      <c r="B109" s="92"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="91"/>
-    </row>
-    <row r="110" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A110" s="92"/>
-      <c r="B110" s="92"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="92"/>
-      <c r="E110" s="91"/>
-    </row>
-    <row r="111" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A111" s="92"/>
-      <c r="B111" s="92"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="92"/>
-      <c r="E111" s="91"/>
-    </row>
-    <row r="112" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A112" s="92"/>
-      <c r="B112" s="92"/>
-      <c r="C112" s="92"/>
-      <c r="D112" s="92"/>
-      <c r="E112" s="91"/>
-    </row>
-    <row r="113" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A113" s="92"/>
-      <c r="B113" s="92"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="92"/>
-      <c r="E113" s="91"/>
-    </row>
-    <row r="114" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A114" s="92"/>
-      <c r="B114" s="92"/>
-      <c r="C114" s="92"/>
-      <c r="D114" s="92"/>
-      <c r="E114" s="91"/>
-    </row>
-    <row r="115" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A115" s="92"/>
-      <c r="B115" s="92"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="91"/>
-    </row>
-    <row r="116" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A116" s="92"/>
-      <c r="B116" s="92"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="92"/>
-      <c r="E116" s="91"/>
-    </row>
-    <row r="117" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A117" s="92"/>
-      <c r="B117" s="92"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="91"/>
-    </row>
-    <row r="118" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A118" s="92"/>
-      <c r="B118" s="92"/>
-      <c r="C118" s="92"/>
-      <c r="D118" s="92"/>
-      <c r="E118" s="91"/>
-    </row>
-    <row r="119" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A119" s="92"/>
-      <c r="B119" s="92"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="92"/>
-      <c r="E119" s="91"/>
-    </row>
-    <row r="120" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A120" s="92"/>
-      <c r="B120" s="92"/>
-      <c r="C120" s="92"/>
-      <c r="D120" s="92"/>
-      <c r="E120" s="91"/>
-    </row>
-    <row r="121" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A121" s="92"/>
-      <c r="B121" s="92"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="92"/>
-      <c r="E121" s="91"/>
-    </row>
-    <row r="122" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A122" s="92"/>
-      <c r="B122" s="92"/>
-      <c r="C122" s="92"/>
-      <c r="D122" s="92"/>
-      <c r="E122" s="91"/>
-    </row>
-    <row r="123" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A123" s="92"/>
-      <c r="B123" s="92"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="92"/>
-      <c r="E123" s="91"/>
-    </row>
-    <row r="124" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A124" s="92"/>
-      <c r="B124" s="92"/>
-      <c r="C124" s="92"/>
-      <c r="D124" s="92"/>
-      <c r="E124" s="91"/>
-    </row>
-    <row r="125" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A125" s="92"/>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="91"/>
-    </row>
-    <row r="126" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A126" s="92"/>
-      <c r="B126" s="92"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="91"/>
-    </row>
-    <row r="127" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A127" s="92"/>
-      <c r="B127" s="92"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="91"/>
-    </row>
-    <row r="128" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A128" s="92"/>
-      <c r="B128" s="92"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="92"/>
-      <c r="E128" s="91"/>
-    </row>
-    <row r="129" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A129" s="92"/>
-      <c r="B129" s="92"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="91"/>
-    </row>
-    <row r="130" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A130" s="92"/>
-      <c r="B130" s="92"/>
-      <c r="C130" s="92"/>
-      <c r="D130" s="92"/>
-      <c r="E130" s="91"/>
-    </row>
-    <row r="131" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A131" s="92"/>
-      <c r="B131" s="92"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="92"/>
-      <c r="E131" s="91"/>
-    </row>
-    <row r="132" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A132" s="92"/>
-      <c r="B132" s="92"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="92"/>
-      <c r="E132" s="91"/>
-    </row>
-    <row r="133" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A133" s="92"/>
-      <c r="B133" s="92"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="91"/>
-    </row>
-    <row r="134" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A134" s="92"/>
-      <c r="B134" s="92"/>
-      <c r="C134" s="92"/>
-      <c r="D134" s="92"/>
-      <c r="E134" s="91"/>
-    </row>
-    <row r="135" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A135" s="92"/>
-      <c r="B135" s="92"/>
-      <c r="C135" s="92"/>
-      <c r="D135" s="92"/>
-      <c r="E135" s="91"/>
-    </row>
-    <row r="136" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A136" s="92"/>
-      <c r="B136" s="92"/>
-      <c r="C136" s="92"/>
-      <c r="D136" s="92"/>
-      <c r="E136" s="91"/>
-    </row>
-    <row r="137" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A137" s="92"/>
-      <c r="B137" s="92"/>
-      <c r="C137" s="92"/>
-      <c r="D137" s="92"/>
-      <c r="E137" s="91"/>
-    </row>
-    <row r="138" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A138" s="92"/>
-      <c r="B138" s="92"/>
-      <c r="C138" s="92"/>
-      <c r="D138" s="92"/>
-      <c r="E138" s="91"/>
-    </row>
-    <row r="139" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A139" s="92"/>
-      <c r="B139" s="92"/>
-      <c r="C139" s="92"/>
-      <c r="D139" s="92"/>
-      <c r="E139" s="91"/>
-    </row>
-    <row r="140" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A140" s="92"/>
-      <c r="B140" s="92"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="92"/>
-      <c r="E140" s="91"/>
-    </row>
-    <row r="141" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A141" s="92">
-        <f t="shared" ref="A141:A165" si="0">ROW()-3</f>
-        <v>138</v>
-      </c>
-      <c r="B141" s="92"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="91"/>
-    </row>
-    <row r="142" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A142" s="92">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="B142" s="92"/>
-      <c r="C142" s="92"/>
-      <c r="D142" s="92"/>
-      <c r="E142" s="91"/>
-    </row>
-    <row r="143" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A143" s="92">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="B143" s="92"/>
-      <c r="C143" s="92"/>
-      <c r="D143" s="92"/>
-      <c r="E143" s="91"/>
-    </row>
-    <row r="144" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A144" s="92">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="B144" s="92"/>
-      <c r="C144" s="92"/>
-      <c r="D144" s="92"/>
-      <c r="E144" s="91"/>
-    </row>
-    <row r="145" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A145" s="92">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="B145" s="92"/>
-      <c r="C145" s="92"/>
-      <c r="D145" s="92"/>
-      <c r="E145" s="91"/>
-    </row>
-    <row r="146" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A146" s="92">
-        <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
-      <c r="B146" s="92"/>
-      <c r="C146" s="92"/>
-      <c r="D146" s="92"/>
-      <c r="E146" s="91"/>
-    </row>
-    <row r="147" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A147" s="92">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="B147" s="92"/>
-      <c r="C147" s="92"/>
-      <c r="D147" s="92"/>
-      <c r="E147" s="91"/>
-    </row>
-    <row r="148" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A148" s="92">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="B148" s="92"/>
-      <c r="C148" s="92"/>
-      <c r="D148" s="92"/>
-      <c r="E148" s="91"/>
-    </row>
-    <row r="149" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A149" s="92">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="B149" s="92"/>
-      <c r="C149" s="92"/>
-      <c r="D149" s="92"/>
-      <c r="E149" s="91"/>
-    </row>
-    <row r="150" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A150" s="92">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-      <c r="B150" s="92"/>
-      <c r="C150" s="92"/>
-      <c r="D150" s="92"/>
-      <c r="E150" s="91"/>
-    </row>
-    <row r="151" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A151" s="92">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="B151" s="92"/>
-      <c r="C151" s="92"/>
-      <c r="D151" s="92"/>
-      <c r="E151" s="91"/>
-    </row>
-    <row r="152" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A152" s="92">
-        <f t="shared" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="B152" s="92"/>
-      <c r="C152" s="92"/>
-      <c r="D152" s="92"/>
-      <c r="E152" s="91"/>
-    </row>
-    <row r="153" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A153" s="92">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="B153" s="92"/>
-      <c r="C153" s="92"/>
-      <c r="D153" s="92"/>
-      <c r="E153" s="91"/>
-    </row>
-    <row r="154" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A154" s="92">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="B154" s="92"/>
-      <c r="C154" s="92"/>
-      <c r="D154" s="92"/>
-      <c r="E154" s="91"/>
-    </row>
-    <row r="155" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A155" s="92">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="B155" s="92"/>
-      <c r="C155" s="92"/>
-      <c r="D155" s="92"/>
-      <c r="E155" s="91"/>
-    </row>
-    <row r="156" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A156" s="92">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="B156" s="92"/>
-      <c r="C156" s="92"/>
-      <c r="D156" s="92"/>
-      <c r="E156" s="91"/>
-    </row>
-    <row r="157" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A157" s="92">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="B157" s="92"/>
-      <c r="C157" s="92"/>
-      <c r="D157" s="92"/>
-      <c r="E157" s="91"/>
-    </row>
-    <row r="158" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A158" s="92">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="B158" s="92"/>
-      <c r="C158" s="92"/>
-      <c r="D158" s="92"/>
-      <c r="E158" s="91"/>
-    </row>
-    <row r="159" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A159" s="92">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="B159" s="92"/>
-      <c r="C159" s="92"/>
-      <c r="D159" s="92"/>
-      <c r="E159" s="91"/>
-    </row>
-    <row r="160" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A160" s="92">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="B160" s="92"/>
-      <c r="C160" s="92"/>
-      <c r="D160" s="92"/>
-      <c r="E160" s="91"/>
-    </row>
-    <row r="161" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A161" s="92">
-        <f t="shared" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="B161" s="92"/>
-      <c r="C161" s="92"/>
-      <c r="D161" s="92"/>
-      <c r="E161" s="91"/>
-    </row>
-    <row r="162" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A162" s="92">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="B162" s="92"/>
-      <c r="C162" s="92"/>
-      <c r="D162" s="92"/>
-      <c r="E162" s="91"/>
-    </row>
-    <row r="163" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A163" s="92">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="B163" s="92"/>
-      <c r="C163" s="92"/>
-      <c r="D163" s="92"/>
-      <c r="E163" s="91"/>
-    </row>
-    <row r="164" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A164" s="92">
-        <f t="shared" si="0"/>
-        <v>161</v>
-      </c>
-      <c r="B164" s="92"/>
-      <c r="C164" s="92"/>
-      <c r="D164" s="92"/>
-      <c r="E164" s="91"/>
-    </row>
-    <row r="165" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A165" s="90">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="B165" s="90"/>
-      <c r="C165" s="90"/>
-      <c r="D165" s="90"/>
-      <c r="E165" s="89"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.21" top="0.38" bottom="0.34" header="0.38" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;F</oddHeader>
-    <oddFooter>&amp;L&amp;9Copyright(c) 2008 HJ All rights reserved.&amp;R&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -6873,7 +4694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
@@ -7591,7 +5412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
@@ -7616,490 +5437,503 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="133"/>
+      <c r="B1" s="131"/>
       <c r="C1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133" t="s">
+      <c r="E1" s="131"/>
+      <c r="F1" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="134" t="s">
+      <c r="G1" s="131"/>
+      <c r="H1" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="137" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="140" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="149" t="s">
+      <c r="G2" s="133"/>
+      <c r="H2" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="151"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="153" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="155"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="123"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="148"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
     </row>
     <row r="9" spans="1:12" ht="40.85" customHeight="1">
       <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="160"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="127"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156" t="s">
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1">
       <c r="A14" s="42">
         <v>1</v>
       </c>
-      <c r="B14" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="170" t="s">
+      <c r="B14" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="1:12" ht="40.200000000000003" customHeight="1">
       <c r="A15" s="42">
         <v>2</v>
       </c>
-      <c r="B15" s="164" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="165" t="s">
+      <c r="B15" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="139"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="106"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="80">
         <v>3</v>
       </c>
-      <c r="B16" s="166" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="168" t="s">
+      <c r="B16" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
     </row>
     <row r="17" spans="1:13" ht="40.85" customHeight="1">
-      <c r="A17" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
+      <c r="A17" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
     </row>
     <row r="18" spans="1:13" ht="42.85" customHeight="1">
-      <c r="A18" s="117"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
     </row>
     <row r="19" spans="1:13" ht="12.85" customHeight="1">
-      <c r="A19" s="171" t="s">
+      <c r="A19" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="121" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="124" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="125"/>
-      <c r="L19" s="124" t="s">
+      <c r="C19" s="141"/>
+      <c r="D19" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="141"/>
+      <c r="L19" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="125"/>
+      <c r="M19" s="141"/>
     </row>
     <row r="20" spans="1:13" ht="14.7">
-      <c r="A20" s="172"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="130" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="130" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="132"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="147" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="149"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="143"/>
     </row>
     <row r="21" spans="1:13" ht="62.7" customHeight="1">
-      <c r="A21" s="118">
+      <c r="A21" s="97">
         <v>1</v>
       </c>
-      <c r="B21" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="124" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="125"/>
-      <c r="L21" s="124" t="s">
+      <c r="B21" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="146"/>
+      <c r="D21" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="141"/>
+      <c r="L21" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="125"/>
+      <c r="M21" s="141"/>
     </row>
     <row r="22" spans="1:13" ht="14.7">
-      <c r="A22" s="118">
+      <c r="A22" s="97">
         <v>2</v>
       </c>
-      <c r="B22" s="121" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
+      <c r="B22" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="146"/>
+      <c r="D22" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="146"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="151"/>
     </row>
     <row r="23" spans="1:13" ht="27" customHeight="1">
-      <c r="A23" s="119">
+      <c r="A23" s="98">
         <v>3</v>
       </c>
-      <c r="B23" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="121" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="122"/>
-      <c r="J23" s="121" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" s="122"/>
-      <c r="L23" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="M23" s="122"/>
+      <c r="B23" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="146"/>
+      <c r="D23" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="144" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="146"/>
+      <c r="J23" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="146"/>
+      <c r="L23" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="146"/>
     </row>
     <row r="24" spans="1:13" ht="40.200000000000003" customHeight="1"/>
     <row r="26" spans="1:13" ht="11.35" customHeight="1"/>
     <row r="27" spans="1:13" ht="15" customHeight="1"/>
     <row r="28" spans="1:13" ht="15" customHeight="1"/>
     <row r="51" spans="1:11" ht="20.7">
-      <c r="A51" s="161"/>
-      <c r="B51" s="161"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="161"/>
-      <c r="G51" s="161"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="161"/>
-      <c r="J51" s="161"/>
-      <c r="K51" s="161"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
     </row>
     <row r="54" spans="1:11" ht="13.35">
-      <c r="A54" s="162"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
-      <c r="E54" s="163"/>
-      <c r="F54" s="163"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="163"/>
-      <c r="J54" s="163"/>
-      <c r="K54" s="163"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
     </row>
     <row r="55" spans="1:11" ht="13.35">
-      <c r="A55" s="162"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
-      <c r="E55" s="163"/>
-      <c r="F55" s="163"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="163"/>
-      <c r="J55" s="163"/>
-      <c r="K55" s="163"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="129"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="162"/>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="162"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="145"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="145"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="145"/>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="145"/>
-      <c r="K58" s="145"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="145"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="145"/>
-      <c r="F59" s="145"/>
-      <c r="G59" s="145"/>
-      <c r="H59" s="145"/>
-      <c r="I59" s="145"/>
-      <c r="J59" s="145"/>
-      <c r="K59" s="145"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="145"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="145"/>
-      <c r="K60" s="145"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -8116,35 +5950,22 @@
     <mergeCell ref="A54:K54"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="D19:I19"/>
     <mergeCell ref="J19:K20"/>
     <mergeCell ref="L19:M20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8157,7 +5978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
@@ -8275,7 +6096,7 @@
       <c r="C4" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="99" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="60" t="s">
@@ -8982,14 +6803,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -9060,26 +6881,26 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.85" customHeight="1">
-      <c r="A5" s="108">
+      <c r="A5" s="87">
         <v>1</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="110" t="s">
-        <v>114</v>
+      <c r="D5" s="89" t="s">
+        <v>90</v>
       </c>
       <c r="E5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="111" t="s">
-        <v>134</v>
+      <c r="F5" s="90" t="s">
+        <v>110</v>
       </c>
       <c r="G5" s="81" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="H5" s="82" t="s">
         <v>0</v>
@@ -9095,19 +6916,19 @@
       <c r="C6" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="113" t="s">
+      <c r="D6" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="115" t="s">
+      <c r="F6" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="94" t="s">
         <v>0</v>
       </c>
     </row>

--- a/design-document/SearchQuick.xlsx
+++ b/design-document/SearchQuick.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen layout" sheetId="3" r:id="rId1"/>
@@ -1200,25 +1200,122 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1240,88 +1337,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,15 +1344,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,12 +1351,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2200,7 +2200,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="10811086" cy="510540"/>
+          <a:ext cx="9770533" cy="510540"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="1330" cy="52"/>
         </a:xfrm>
@@ -4671,18 +4671,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
     <col min="11" max="11" width="3.88671875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1"/>
+    <row r="1" ht="49.95" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -4698,11 +4698,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="20" customWidth="1"/>
@@ -4722,7 +4722,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="73" customFormat="1" ht="56.35" customHeight="1">
+    <row r="1" spans="1:14" s="73" customFormat="1" ht="56.4" customHeight="1">
       <c r="A1" s="78"/>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -4781,7 +4781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.350000000000001" customHeight="1">
+    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
         <v>1</v>
@@ -4824,7 +4824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.350000000000001" customHeight="1">
+    <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5312,7 +5312,7 @@
       <c r="I33" s="23"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="13.35">
+    <row r="34" spans="1:13" ht="13.2">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -5327,7 +5327,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" ht="13.35">
+    <row r="35" spans="1:13" ht="13.2">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -5342,7 +5342,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:13" ht="13.35">
+    <row r="36" spans="1:13" ht="13.2">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -5357,7 +5357,7 @@
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="1:13" ht="13.35">
+    <row r="37" spans="1:13" ht="13.2">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -5372,7 +5372,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="1:13" ht="13.35">
+    <row r="38" spans="1:13" ht="13.2">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -5387,7 +5387,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="1:13" ht="13.35">
+    <row r="39" spans="1:13" ht="13.2">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -5420,7 +5420,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="41"/>
     <col min="2" max="2" width="10.77734375" style="41" customWidth="1"/>
@@ -5437,220 +5437,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="136" t="s">
+      <c r="G1" s="107"/>
+      <c r="H1" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="138"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="139" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="133" t="s">
+      <c r="D2" s="112"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="133"/>
-      <c r="H2" s="117" t="s">
+      <c r="G2" s="114"/>
+      <c r="H2" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="119"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="121" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="123"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="129"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="120" t="s">
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102" t="s">
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-    </row>
-    <row r="9" spans="1:12" ht="40.85" customHeight="1">
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+    </row>
+    <row r="9" spans="1:12" ht="40.799999999999997" customHeight="1">
       <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="127"/>
-    </row>
-    <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="120" t="s">
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="134"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102" t="s">
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1">
       <c r="A14" s="42">
         <v>1</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="111" t="s">
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
     </row>
     <row r="15" spans="1:12" ht="40.200000000000003" customHeight="1">
       <c r="A15" s="42">
         <v>2</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104" t="s">
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="106"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="113"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="80">
         <v>3</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109" t="s">
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-    </row>
-    <row r="17" spans="1:13" ht="40.85" customHeight="1">
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+    </row>
+    <row r="17" spans="1:13" ht="40.799999999999997" customHeight="1">
       <c r="A17" s="95" t="s">
         <v>94</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="L17" s="96"/>
       <c r="M17" s="96"/>
     </row>
-    <row r="18" spans="1:13" ht="42.85" customHeight="1">
+    <row r="18" spans="1:13" ht="42.9" customHeight="1">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -5682,258 +5682,251 @@
       <c r="L18" s="96"/>
       <c r="M18" s="96"/>
     </row>
-    <row r="19" spans="1:13" ht="12.85" customHeight="1">
-      <c r="A19" s="112" t="s">
+    <row r="19" spans="1:13" ht="12.9" customHeight="1">
+      <c r="A19" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="140" t="s">
+      <c r="B19" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="141"/>
-      <c r="D19" s="144" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="140" t="s">
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="141"/>
-      <c r="L19" s="140" t="s">
+      <c r="K19" s="104"/>
+      <c r="L19" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="141"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.7">
-      <c r="A20" s="113"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="147" t="s">
+      <c r="M19" s="104"/>
+    </row>
+    <row r="20" spans="1:13" ht="13.8">
+      <c r="A20" s="146"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="147" t="s">
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="149"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="143"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="148"/>
     </row>
     <row r="21" spans="1:13" ht="62.7" customHeight="1">
       <c r="A21" s="97">
         <v>1</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="144" t="s">
+      <c r="C21" s="101"/>
+      <c r="D21" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="140" t="s">
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="141"/>
-      <c r="L21" s="140" t="s">
+      <c r="K21" s="104"/>
+      <c r="L21" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="141"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.7">
+      <c r="M21" s="104"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.8">
       <c r="A22" s="97">
         <v>2</v>
       </c>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="144" t="s">
+      <c r="C22" s="101"/>
+      <c r="D22" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="144" t="s">
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="146"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="151"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="106"/>
     </row>
     <row r="23" spans="1:13" ht="27" customHeight="1">
       <c r="A23" s="98">
         <v>3</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="144" t="s">
+      <c r="C23" s="101"/>
+      <c r="D23" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="144" t="s">
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="146"/>
-      <c r="J23" s="144" t="s">
+      <c r="I23" s="101"/>
+      <c r="J23" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="146"/>
-      <c r="L23" s="144" t="s">
+      <c r="K23" s="101"/>
+      <c r="L23" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="M23" s="146"/>
+      <c r="M23" s="101"/>
     </row>
     <row r="24" spans="1:13" ht="40.200000000000003" customHeight="1"/>
-    <row r="26" spans="1:13" ht="11.35" customHeight="1"/>
+    <row r="26" spans="1:13" ht="11.4" customHeight="1"/>
     <row r="27" spans="1:13" ht="15" customHeight="1"/>
     <row r="28" spans="1:13" ht="15" customHeight="1"/>
-    <row r="51" spans="1:11" ht="20.7">
-      <c r="A51" s="128"/>
-      <c r="B51" s="128"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="128"/>
-    </row>
-    <row r="54" spans="1:11" ht="13.35">
-      <c r="A54" s="100"/>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-    </row>
-    <row r="55" spans="1:11" ht="13.35">
-      <c r="A55" s="100"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
+    <row r="51" spans="1:11" ht="21">
+      <c r="A51" s="135"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="136"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="137"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="136"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="137"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="100"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
+      <c r="A56" s="136"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="136"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="101"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="119"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="101"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="101"/>
-      <c r="K58" s="101"/>
+      <c r="A58" s="119"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="119"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="101"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="119"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="101"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="101"/>
-      <c r="K60" s="101"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="119"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -5950,22 +5943,29 @@
     <mergeCell ref="A54:K54"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:K20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5986,7 +5986,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -6005,7 +6005,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="73" customFormat="1" ht="47.35" customHeight="1">
+    <row r="1" spans="1:15" s="73" customFormat="1" ht="47.4" customHeight="1">
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
@@ -6038,7 +6038,7 @@
       <c r="N2" s="54"/>
       <c r="O2" s="53"/>
     </row>
-    <row r="3" spans="1:15" ht="107.35">
+    <row r="3" spans="1:15" ht="100.8">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="46" customFormat="1" ht="17.350000000000001" customHeight="1">
+    <row r="6" spans="1:15" s="46" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A6" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6773,7 +6773,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" ht="13.35">
+    <row r="32" spans="1:15" ht="13.2">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -6814,7 +6814,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="1" customWidth="1"/>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.85" customHeight="1">
+    <row r="5" spans="1:8" ht="21.9" customHeight="1">
       <c r="A5" s="87">
         <v>1</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1">
+    <row r="6" spans="1:8" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -6932,13 +6932,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="8" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="9" spans="1:8" ht="26.35" customHeight="1"/>
+    <row r="7" spans="1:8" ht="26.4" customHeight="1"/>
+    <row r="8" spans="1:8" ht="26.4" customHeight="1"/>
+    <row r="9" spans="1:8" ht="26.4" customHeight="1"/>
     <row r="10" spans="1:8" ht="31.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;9Copyright(c) 2008 HJ All rights reserved.&amp;R5-&amp;P</oddFooter>
   </headerFooter>

--- a/design-document/SearchQuick.xlsx
+++ b/design-document/SearchQuick.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23013" windowHeight="9173" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen layout" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="110">
   <si>
     <t>-</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Hiển thị danh sách tìm kiếm</t>
   </si>
   <si>
-    <t>Student_Model.cs, AccessDB_DAO.cs</t>
-  </si>
-  <si>
     <t>SearchMember_BLO.cs</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>Chuyển form xem chi tiết hội viên</t>
   </si>
   <si>
-    <t>RegisterNumber</t>
-  </si>
-  <si>
     <t>RegisterMember_BLO.cs</t>
   </si>
   <si>
@@ -372,6 +366,9 @@
   </si>
   <si>
     <t>AKD-MS010-E</t>
+  </si>
+  <si>
+    <t>Student_Model.cs, AccessDB_DAO.cs,SearchMember_DAO</t>
   </si>
 </sst>
 </file>
@@ -1191,166 +1188,166 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2200,7 +2197,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="9770533" cy="510540"/>
+          <a:ext cx="10811086" cy="510540"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="1330" cy="52"/>
         </a:xfrm>
@@ -4675,14 +4672,14 @@
       <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
     <col min="11" max="11" width="3.88671875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.95" customHeight="1"/>
+    <row r="1" ht="50" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -4698,11 +4695,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="20" customWidth="1"/>
@@ -4722,7 +4719,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="73" customFormat="1" ht="56.4" customHeight="1">
+    <row r="1" spans="1:14" s="73" customFormat="1" ht="56.35" customHeight="1">
       <c r="A1" s="78"/>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -4781,7 +4778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="1:14" ht="17.350000000000001" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
         <v>1</v>
@@ -4824,7 +4821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="1:14" ht="17.350000000000001" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5312,7 +5309,7 @@
       <c r="I33" s="23"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="13.2">
+    <row r="34" spans="1:13" ht="13.35">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -5327,7 +5324,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" ht="13.2">
+    <row r="35" spans="1:13" ht="13.35">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -5342,7 +5339,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:13" ht="13.2">
+    <row r="36" spans="1:13" ht="13.35">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -5357,7 +5354,7 @@
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="1:13" ht="13.2">
+    <row r="37" spans="1:13" ht="13.35">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -5372,7 +5369,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="1:13" ht="13.2">
+    <row r="38" spans="1:13" ht="13.35">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -5387,7 +5384,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="1:13" ht="13.2">
+    <row r="39" spans="1:13" ht="13.35">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -5416,11 +5413,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="41"/>
     <col min="2" max="2" width="10.77734375" style="41" customWidth="1"/>
@@ -5437,220 +5434,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="141"/>
       <c r="C1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107" t="s">
+      <c r="E1" s="141"/>
+      <c r="F1" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108" t="s">
+      <c r="G1" s="141"/>
+      <c r="H1" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="148"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="111" t="s">
+      <c r="B2" s="143"/>
+      <c r="C2" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="123" t="s">
+      <c r="G2" s="143"/>
+      <c r="H2" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="127" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="133"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="122"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="126" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.35">
+      <c r="A6" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-    </row>
-    <row r="9" spans="1:12" ht="40.799999999999997" customHeight="1">
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+    </row>
+    <row r="9" spans="1:12" ht="40.85" customHeight="1">
       <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="134"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="126" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="137"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.35">
+      <c r="A11" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130" t="s">
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1">
       <c r="A14" s="42">
         <v>1</v>
       </c>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="144" t="s">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="1:12" ht="40.200000000000003" customHeight="1">
       <c r="A15" s="42">
         <v>2</v>
       </c>
-      <c r="B15" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139" t="s">
+      <c r="B15" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="113"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="106"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="80">
         <v>3</v>
       </c>
-      <c r="B16" s="140" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142" t="s">
+      <c r="B16" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-    </row>
-    <row r="17" spans="1:13" ht="40.799999999999997" customHeight="1">
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+    </row>
+    <row r="17" spans="1:13" ht="40.85" customHeight="1">
       <c r="A17" s="95" t="s">
         <v>94</v>
       </c>
@@ -5667,7 +5664,7 @@
       <c r="L17" s="96"/>
       <c r="M17" s="96"/>
     </row>
-    <row r="18" spans="1:13" ht="42.9" customHeight="1">
+    <row r="18" spans="1:13" ht="42.85" customHeight="1">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -5682,235 +5679,274 @@
       <c r="L18" s="96"/>
       <c r="M18" s="96"/>
     </row>
-    <row r="19" spans="1:13" ht="12.9" customHeight="1">
-      <c r="A19" s="145" t="s">
+    <row r="19" spans="1:13" s="96" customFormat="1" ht="24.85" customHeight="1">
+      <c r="A19" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="100" t="s">
+      <c r="C19" s="115"/>
+      <c r="D19" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="103" t="s">
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="104"/>
-      <c r="L19" s="103" t="s">
+      <c r="K19" s="115"/>
+      <c r="L19" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="104"/>
-    </row>
-    <row r="20" spans="1:13" ht="13.8">
-      <c r="A20" s="146"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149" t="s">
+      <c r="M19" s="115"/>
+    </row>
+    <row r="20" spans="1:13" s="96" customFormat="1" ht="15.35" customHeight="1">
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="149" t="s">
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="151"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="148"/>
-    </row>
-    <row r="21" spans="1:13" ht="62.7" customHeight="1">
-      <c r="A21" s="97">
+      <c r="I20" s="123"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="117"/>
+    </row>
+    <row r="21" spans="1:13" s="96" customFormat="1" ht="63.35" customHeight="1">
+      <c r="A21" s="99">
         <v>1</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="100" t="s">
+      <c r="C21" s="120"/>
+      <c r="D21" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="103" t="s">
+      <c r="K21" s="115"/>
+      <c r="L21" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="115"/>
+    </row>
+    <row r="22" spans="1:13" s="96" customFormat="1" ht="26" customHeight="1">
+      <c r="A22" s="99">
+        <v>2</v>
+      </c>
+      <c r="B22" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="104"/>
-      <c r="L21" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="M21" s="104"/>
-    </row>
-    <row r="22" spans="1:13" ht="13.8">
-      <c r="A22" s="97">
-        <v>2</v>
-      </c>
-      <c r="B22" s="100" t="s">
+      <c r="C22" s="120"/>
+      <c r="D22" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="100" t="s">
+      <c r="I22" s="120"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="151"/>
+    </row>
+    <row r="23" spans="1:13" s="96" customFormat="1" ht="48.85" customHeight="1">
+      <c r="A23" s="97">
+        <v>3</v>
+      </c>
+      <c r="B23" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="101"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="106"/>
-    </row>
-    <row r="23" spans="1:13" ht="27" customHeight="1">
-      <c r="A23" s="98">
-        <v>3</v>
-      </c>
-      <c r="B23" s="100" t="s">
+      <c r="C23" s="120"/>
+      <c r="D23" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="120"/>
+      <c r="J23" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="100" t="s">
+      <c r="K23" s="120"/>
+      <c r="L23" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="101"/>
-      <c r="J23" s="100" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="101"/>
-      <c r="L23" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="M23" s="101"/>
+      <c r="M23" s="120"/>
     </row>
     <row r="24" spans="1:13" ht="40.200000000000003" customHeight="1"/>
-    <row r="26" spans="1:13" ht="11.4" customHeight="1"/>
+    <row r="26" spans="1:13" ht="11.35" customHeight="1"/>
     <row r="27" spans="1:13" ht="15" customHeight="1"/>
     <row r="28" spans="1:13" ht="15" customHeight="1"/>
-    <row r="51" spans="1:11" ht="21">
-      <c r="A51" s="135"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="135"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="136"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="137"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="136"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="137"/>
-      <c r="I55" s="137"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="137"/>
+    <row r="51" spans="1:11" ht="20.7">
+      <c r="A51" s="138"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="138"/>
+    </row>
+    <row r="54" spans="1:11" ht="13.35">
+      <c r="A54" s="100"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="139"/>
+      <c r="K54" s="139"/>
+    </row>
+    <row r="55" spans="1:11" ht="13.35">
+      <c r="A55" s="100"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="139"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="139"/>
+      <c r="I55" s="139"/>
+      <c r="J55" s="139"/>
+      <c r="K55" s="139"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="136"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="119"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="119"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="119"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="119"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="119"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A55:K55"/>
     <mergeCell ref="A56:K56"/>
     <mergeCell ref="A57:K57"/>
     <mergeCell ref="E13:L13"/>
@@ -5927,45 +5963,6 @@
     <mergeCell ref="L19:M20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5986,7 +5983,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -6005,7 +6002,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="73" customFormat="1" ht="47.4" customHeight="1">
+    <row r="1" spans="1:15" s="73" customFormat="1" ht="47.35" customHeight="1">
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
@@ -6038,7 +6035,7 @@
       <c r="N2" s="54"/>
       <c r="O2" s="53"/>
     </row>
-    <row r="3" spans="1:15" ht="100.8">
+    <row r="3" spans="1:15" ht="107.35">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -6096,7 +6093,7 @@
       <c r="C4" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="98" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="60" t="s">
@@ -6181,7 +6178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="46" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="1:15" s="46" customFormat="1" ht="17.350000000000001" customHeight="1">
       <c r="A6" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6773,7 +6770,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="13.35">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -6811,10 +6808,10 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="1" customWidth="1"/>
@@ -6880,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.9" customHeight="1">
+    <row r="5" spans="1:8" ht="21.85" customHeight="1">
       <c r="A5" s="87">
         <v>1</v>
       </c>
@@ -6897,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" s="81" t="s">
         <v>91</v>
@@ -6906,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.899999999999999" customHeight="1">
+    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -6923,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G6" s="93" t="s">
         <v>93</v>
@@ -6932,13 +6929,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.4" customHeight="1"/>
-    <row r="8" spans="1:8" ht="26.4" customHeight="1"/>
-    <row r="9" spans="1:8" ht="26.4" customHeight="1"/>
+    <row r="7" spans="1:8" ht="26.35" customHeight="1"/>
+    <row r="8" spans="1:8" ht="26.35" customHeight="1"/>
+    <row r="9" spans="1:8" ht="26.35" customHeight="1"/>
     <row r="10" spans="1:8" ht="31.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;9Copyright(c) 2008 HJ All rights reserved.&amp;R5-&amp;P</oddFooter>
   </headerFooter>

--- a/design-document/SearchQuick.xlsx
+++ b/design-document/SearchQuick.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23013" windowHeight="9173" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15347" windowHeight="4160"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen layout" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="05_Check Condition" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen layout'!$A$1:$P$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen layout'!$A$1:$P$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_definition'!$A$1:$M$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Condition Monadic'!$A$1:$O$32</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="109">
   <si>
     <t>-</t>
   </si>
@@ -314,15 +314,9 @@
     <t>Không xuất được file word</t>
   </si>
   <si>
-    <t>{0}: xuất file bị lỗi</t>
-  </si>
-  <si>
     <t>Không có dữ liều cần tìm kiếm</t>
   </si>
   <si>
-    <t>{0}: tìm kiếm</t>
-  </si>
-  <si>
     <t>3. Mapping Action and Class</t>
   </si>
   <si>
@@ -369,6 +363,9 @@
   </si>
   <si>
     <t>Student_Model.cs, AccessDB_DAO.cs,SearchMember_DAO</t>
+  </si>
+  <si>
+    <t>{0}: xuất file</t>
   </si>
 </sst>
 </file>
@@ -2063,50 +2060,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>617569</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>39843</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>168960</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>6100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="617569" y="956235"/>
-          <a:ext cx="7410450" cy="5962650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2169,6 +2122,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>94210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>27016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="537882" y="871151"/>
+          <a:ext cx="8865099" cy="6208100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2197,7 +2188,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="10811086" cy="510540"/>
+          <a:ext cx="10819553" cy="510540"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="1330" cy="52"/>
         </a:xfrm>
@@ -4668,7 +4659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
@@ -4679,7 +4670,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1"/>
+    <row r="1" ht="50.2" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -4704,22 +4695,22 @@
     <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="20" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="20" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="21" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="20" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="20" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="20" customWidth="1"/>
     <col min="10" max="10" width="8.109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="20" customWidth="1"/>
     <col min="12" max="12" width="8.44140625" style="21" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="20" customWidth="1"/>
     <col min="14" max="14" width="35.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="1.109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="73" customFormat="1" ht="56.35" customHeight="1">
+    <row r="1" spans="1:14" s="73" customFormat="1" ht="56.5" customHeight="1">
       <c r="A1" s="78"/>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -4778,7 +4769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.350000000000001" customHeight="1">
+    <row r="3" spans="1:14" ht="17.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
         <v>1</v>
@@ -4821,7 +4812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.350000000000001" customHeight="1">
+    <row r="4" spans="1:14" ht="17.5" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5413,14 +5404,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="41"/>
-    <col min="2" max="2" width="10.77734375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="41" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" style="41" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="41" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="41" customWidth="1"/>
@@ -5592,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
@@ -5612,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="103"/>
       <c r="D15" s="103"/>
@@ -5632,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
@@ -5649,7 +5640,7 @@
     </row>
     <row r="17" spans="1:13" ht="40.85" customHeight="1">
       <c r="A17" s="95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="96"/>
       <c r="C17" s="96"/>
@@ -5664,7 +5655,7 @@
       <c r="L17" s="96"/>
       <c r="M17" s="96"/>
     </row>
-    <row r="18" spans="1:13" ht="42.85" customHeight="1">
+    <row r="18" spans="1:13" ht="43" customHeight="1">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -5679,7 +5670,7 @@
       <c r="L18" s="96"/>
       <c r="M18" s="96"/>
     </row>
-    <row r="19" spans="1:13" s="96" customFormat="1" ht="24.85" customHeight="1">
+    <row r="19" spans="1:13" s="96" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="112" t="s">
         <v>73</v>
       </c>
@@ -5688,7 +5679,7 @@
       </c>
       <c r="C19" s="115"/>
       <c r="D19" s="118" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="119"/>
       <c r="F19" s="119"/>
@@ -5696,7 +5687,7 @@
       <c r="H19" s="119"/>
       <c r="I19" s="120"/>
       <c r="J19" s="114" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19" s="115"/>
       <c r="L19" s="114" t="s">
@@ -5709,13 +5700,13 @@
       <c r="B20" s="116"/>
       <c r="C20" s="117"/>
       <c r="D20" s="121" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="122"/>
       <c r="F20" s="122"/>
       <c r="G20" s="123"/>
       <c r="H20" s="121" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I20" s="123"/>
       <c r="J20" s="116"/>
@@ -5728,11 +5719,11 @@
         <v>1</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="120"/>
       <c r="D21" s="118" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" s="119"/>
       <c r="F21" s="119"/>
@@ -5740,7 +5731,7 @@
       <c r="H21" s="118"/>
       <c r="I21" s="120"/>
       <c r="J21" s="114" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K21" s="115"/>
       <c r="L21" s="114" t="s">
@@ -5748,12 +5739,12 @@
       </c>
       <c r="M21" s="115"/>
     </row>
-    <row r="22" spans="1:13" s="96" customFormat="1" ht="26" customHeight="1">
+    <row r="22" spans="1:13" s="96" customFormat="1" ht="26.2" customHeight="1">
       <c r="A22" s="99">
         <v>2</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" s="120"/>
       <c r="D22" s="118" t="s">
@@ -5763,7 +5754,7 @@
       <c r="F22" s="119"/>
       <c r="G22" s="120"/>
       <c r="H22" s="118" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I22" s="120"/>
       <c r="J22" s="150"/>
@@ -5771,12 +5762,12 @@
       <c r="L22" s="150"/>
       <c r="M22" s="151"/>
     </row>
-    <row r="23" spans="1:13" s="96" customFormat="1" ht="48.85" customHeight="1">
+    <row r="23" spans="1:13" s="96" customFormat="1" ht="49" customHeight="1">
       <c r="A23" s="97">
         <v>3</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C23" s="120"/>
       <c r="D23" s="118" t="s">
@@ -5790,16 +5781,16 @@
       </c>
       <c r="I23" s="120"/>
       <c r="J23" s="118" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K23" s="120"/>
       <c r="L23" s="118" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M23" s="120"/>
     </row>
     <row r="24" spans="1:13" ht="40.200000000000003" customHeight="1"/>
-    <row r="26" spans="1:13" ht="11.35" customHeight="1"/>
+    <row r="26" spans="1:13" ht="11.5" customHeight="1"/>
     <row r="27" spans="1:13" ht="15" customHeight="1"/>
     <row r="28" spans="1:13" ht="15" customHeight="1"/>
     <row r="51" spans="1:11" ht="20.7">
@@ -5988,11 +5979,11 @@
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="6.109375" style="45" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="45" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="1" customWidth="1"/>
@@ -6002,7 +5993,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="73" customFormat="1" ht="47.35" customHeight="1">
+    <row r="1" spans="1:15" s="73" customFormat="1" ht="47.5" customHeight="1">
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
@@ -6178,7 +6169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="46" customFormat="1" ht="17.350000000000001" customHeight="1">
+    <row r="6" spans="1:15" s="46" customFormat="1" ht="17.5" customHeight="1">
       <c r="A6" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6808,7 +6799,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -6877,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.85" customHeight="1">
+    <row r="5" spans="1:8" ht="22" customHeight="1">
       <c r="A5" s="87">
         <v>1</v>
       </c>
@@ -6894,16 +6885,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="81" t="s">
         <v>108</v>
-      </c>
-      <c r="G5" s="81" t="s">
-        <v>91</v>
       </c>
       <c r="H5" s="82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1">
+    <row r="6" spans="1:8" ht="19" customHeight="1">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -6914,24 +6905,22 @@
         <v>88</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="92" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>93</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G6" s="93"/>
       <c r="H6" s="94" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="8" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="9" spans="1:8" ht="26.35" customHeight="1"/>
+    <row r="7" spans="1:8" ht="26.5" customHeight="1"/>
+    <row r="8" spans="1:8" ht="26.5" customHeight="1"/>
+    <row r="9" spans="1:8" ht="26.5" customHeight="1"/>
     <row r="10" spans="1:8" ht="31.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
